--- a/data/cc.xlsx
+++ b/data/cc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="408">
   <si>
     <t>MAPTYPE</t>
   </si>
@@ -1179,6 +1179,75 @@
   </si>
   <si>
     <t>1600 OR 99</t>
+  </si>
+  <si>
+    <t>1389 OR 457</t>
+  </si>
+  <si>
+    <t>1394 OR 629</t>
+  </si>
+  <si>
+    <t>1507 OR 605</t>
+  </si>
+  <si>
+    <t>1557 OR 625</t>
+  </si>
+  <si>
+    <t>1561 OR 253</t>
+  </si>
+  <si>
+    <t>1607 OR 276</t>
+  </si>
+  <si>
+    <t>1724 OR 427</t>
+  </si>
+  <si>
+    <t>1989 OR 3208</t>
+  </si>
+  <si>
+    <t>1990-27833-1</t>
+  </si>
+  <si>
+    <t>1992-26436-1</t>
+  </si>
+  <si>
+    <t>2007-11272-2</t>
+  </si>
+  <si>
+    <t>1989 OR 26353</t>
+  </si>
+  <si>
+    <t>1992-31290-1</t>
+  </si>
+  <si>
+    <t>1993-32006-1</t>
+  </si>
+  <si>
+    <t>1271 OR 482</t>
+  </si>
+  <si>
+    <t>1361 OR 65</t>
+  </si>
+  <si>
+    <t>1598 OR 271</t>
+  </si>
+  <si>
+    <t>1307 OR 58</t>
+  </si>
+  <si>
+    <t>1995-15125-1</t>
+  </si>
+  <si>
+    <t>1989 OR 13066</t>
+  </si>
+  <si>
+    <t>1991-10350-1</t>
+  </si>
+  <si>
+    <t>1992-31294-1</t>
+  </si>
+  <si>
+    <t>1995-5886-1</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1283,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1532,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G317"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1611,7 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
@@ -1559,7 +1627,7 @@
       <c r="C1" t="s">
         <v>383</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>375</v>
       </c>
       <c r="E1" t="s">
@@ -2379,45 +2447,45 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D37" s="1">
-        <v>37601</v>
+        <v>38807</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C38">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1">
-        <v>36825</v>
+        <v>37601</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2431,42 +2499,42 @@
         <v>30</v>
       </c>
       <c r="C39">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1">
-        <v>36481</v>
+        <v>36825</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>69</v>
+      </c>
+      <c r="D40" s="1">
+        <v>36481</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
         <v>63</v>
       </c>
-      <c r="C40">
-        <v>26</v>
-      </c>
-      <c r="D40" s="1">
-        <v>38342</v>
-      </c>
-      <c r="E40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" t="s">
-        <v>64</v>
-      </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2474,19 +2542,19 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D41" s="1">
-        <v>36637</v>
+        <v>38342</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2494,22 +2562,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42">
+        <v>60</v>
+      </c>
+      <c r="C42">
         <v>13</v>
       </c>
-      <c r="C42">
-        <v>103</v>
-      </c>
       <c r="D42" s="1">
-        <v>29018</v>
+        <v>36637</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2517,45 +2585,45 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D43" s="1">
-        <v>38520</v>
+        <v>29018</v>
       </c>
       <c r="E43" t="s">
         <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C44">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="D44" s="1">
-        <v>38636</v>
+        <v>38520</v>
       </c>
       <c r="E44" t="s">
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -2569,19 +2637,19 @@
         <v>32</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1">
-        <v>38331</v>
+        <v>38636</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2592,16 +2660,16 @@
         <v>32</v>
       </c>
       <c r="C46">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1">
-        <v>38553</v>
+        <v>38331</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2609,22 +2677,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C47">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1">
-        <v>38191</v>
+        <v>38553</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2632,22 +2700,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C48">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1">
-        <v>38245</v>
+        <v>38191</v>
       </c>
       <c r="E48" t="s">
         <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2655,45 +2723,45 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C49">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D49" s="1">
-        <v>38498</v>
+        <v>38245</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D50" s="1">
-        <v>35537</v>
+        <v>38498</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -2701,45 +2769,45 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C51">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D51" s="1">
-        <v>35002</v>
+        <v>35537</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1">
-        <v>31621</v>
+        <v>35002</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2747,91 +2815,91 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1">
-        <v>37239</v>
+        <v>31621</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
-        <v>37928</v>
+        <v>37239</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C55">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1">
-        <v>37663</v>
+        <v>37928</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D56" s="1">
-        <v>37215</v>
+        <v>37663</v>
       </c>
       <c r="E56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -2839,22 +2907,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D57" s="1">
-        <v>37237</v>
+        <v>37215</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -2868,39 +2936,39 @@
         <v>23</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1">
-        <v>37342</v>
+        <v>37237</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D59" s="1">
-        <v>33196</v>
+        <v>37342</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2908,22 +2976,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C60">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1">
-        <v>37036</v>
+        <v>33196</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2934,19 +3002,19 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D61" s="1">
-        <v>31047</v>
+        <v>37036</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2954,25 +3022,25 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C62">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D62" s="1">
-        <v>36859</v>
+        <v>31047</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,39 +3051,39 @@
         <v>30</v>
       </c>
       <c r="C63">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D63" s="1">
-        <v>36998</v>
+        <v>36859</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="D64" s="1">
-        <v>36277</v>
+        <v>36998</v>
       </c>
       <c r="E64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -3029,16 +3097,16 @@
         <v>59</v>
       </c>
       <c r="C65">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D65" s="1">
-        <v>36327</v>
+        <v>36277</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3046,114 +3114,114 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C66">
-        <v>64</v>
-      </c>
-      <c r="D66" s="2">
-        <v>36201</v>
+        <v>66</v>
+      </c>
+      <c r="D66" s="1">
+        <v>36327</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C67">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D67" s="1">
-        <v>36209</v>
+        <v>36201</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B68">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D68" s="1">
-        <v>36313</v>
+        <v>36209</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B69">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C69">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D69" s="1">
-        <v>36076</v>
+        <v>36313</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C70">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D70" s="1">
-        <v>36018</v>
+        <v>36076</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -3164,42 +3232,42 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C71">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D71" s="1">
-        <v>31953</v>
+        <v>36018</v>
       </c>
       <c r="E71" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C72">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D72" s="1">
-        <v>32255</v>
+        <v>31953</v>
       </c>
       <c r="E72" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -3207,68 +3275,68 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C73">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="D73" s="1">
-        <v>35054</v>
+        <v>32255</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C74">
-        <v>124</v>
-      </c>
-      <c r="D74" s="2">
-        <v>35243</v>
+        <v>117</v>
+      </c>
+      <c r="D74" s="1">
+        <v>35054</v>
       </c>
       <c r="E74" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C75">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D75" s="1">
-        <v>34841</v>
+        <v>35243</v>
       </c>
       <c r="E75" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -3279,19 +3347,19 @@
         <v>3</v>
       </c>
       <c r="B76">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C76">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D76" s="1">
-        <v>33751</v>
+        <v>34841</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3302,65 +3370,65 @@
         <v>3</v>
       </c>
       <c r="B77">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C77">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D77" s="1">
-        <v>34631</v>
+        <v>33751</v>
       </c>
       <c r="E77" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C78">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D78" s="1">
-        <v>33393</v>
+        <v>34631</v>
       </c>
       <c r="E78" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C79">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D79" s="1">
-        <v>35082</v>
+        <v>33393</v>
       </c>
       <c r="E79" t="s">
         <v>102</v>
       </c>
       <c r="F79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -3368,22 +3436,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="D80" s="1">
-        <v>34871</v>
+        <v>35082</v>
       </c>
       <c r="E80" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -3394,22 +3462,22 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C81">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="D81" s="1">
-        <v>34381</v>
+        <v>34871</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3417,19 +3485,19 @@
         <v>3</v>
       </c>
       <c r="B82">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C82">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="D82" s="1">
-        <v>34772</v>
+        <v>34381</v>
       </c>
       <c r="E82" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3437,22 +3505,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B83">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C83">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="D83" s="1">
-        <v>34236</v>
+        <v>34772</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3460,45 +3528,45 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B84">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C84">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D84" s="1">
-        <v>34718</v>
+        <v>30977</v>
       </c>
       <c r="E84" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>403</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B85">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="D85" s="1">
-        <v>34558</v>
+        <v>34236</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3506,45 +3574,45 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B86">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C86">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D86" s="1">
-        <v>34480</v>
+        <v>34718</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B87">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C87">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D87" s="1">
-        <v>32791</v>
+        <v>34654</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F87" t="s">
-        <v>123</v>
+        <v>407</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -3552,22 +3620,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B88">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1">
-        <v>34382</v>
+        <v>34558</v>
       </c>
       <c r="E88" t="s">
         <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -3575,22 +3643,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B89">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C89">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D89" s="1">
-        <v>29789</v>
+        <v>34480</v>
       </c>
       <c r="E89" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="F89" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3598,22 +3666,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B90">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C90">
         <v>97</v>
       </c>
       <c r="D90" s="1">
-        <v>28830</v>
+        <v>32791</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3624,19 +3692,19 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C91">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1">
-        <v>30992</v>
+        <v>34382</v>
       </c>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3644,22 +3712,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B92">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C92">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D92" s="1">
-        <v>33729</v>
+        <v>29789</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F92" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3670,19 +3738,19 @@
         <v>6</v>
       </c>
       <c r="B93">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C93">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D93" s="1">
-        <v>34393</v>
+        <v>28830</v>
       </c>
       <c r="E93" t="s">
         <v>127</v>
       </c>
       <c r="F93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3693,19 +3761,19 @@
         <v>3</v>
       </c>
       <c r="B94">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D94" s="1">
-        <v>34074</v>
+        <v>30992</v>
       </c>
       <c r="E94" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3716,19 +3784,19 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C95">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D95" s="1">
-        <v>34130</v>
+        <v>33729</v>
       </c>
       <c r="E95" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3736,22 +3804,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B96">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="D96" s="1">
-        <v>34323</v>
+        <v>34393</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3765,16 +3833,16 @@
         <v>54</v>
       </c>
       <c r="C97">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1">
-        <v>34319</v>
+        <v>34074</v>
       </c>
       <c r="E97" t="s">
         <v>59</v>
       </c>
       <c r="F97" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3785,19 +3853,19 @@
         <v>3</v>
       </c>
       <c r="B98">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="D98" s="1">
-        <v>34046</v>
+        <v>34130</v>
       </c>
       <c r="E98" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F98" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3805,22 +3873,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B99">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C99">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D99" s="1">
-        <v>32689</v>
+        <v>34323</v>
       </c>
       <c r="E99" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F99" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3828,22 +3896,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B100">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C100">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D100" s="1">
-        <v>34236</v>
+        <v>34319</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="F100" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3851,22 +3919,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B101">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C101">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="D101" s="1">
-        <v>33792</v>
+        <v>34046</v>
       </c>
       <c r="E101" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F101" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3874,22 +3942,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B102">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C102">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D102" s="1">
-        <v>34149</v>
+        <v>32689</v>
       </c>
       <c r="E102" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F102" t="s">
-        <v>374</v>
+        <v>137</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -3903,19 +3971,19 @@
         <v>20</v>
       </c>
       <c r="C103">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D103" s="1">
-        <v>33975</v>
+        <v>34236</v>
       </c>
       <c r="E103" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="F103" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3923,19 +3991,19 @@
         <v>6</v>
       </c>
       <c r="B104">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C104">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D104" s="1">
-        <v>34011</v>
+        <v>33977</v>
       </c>
       <c r="E104" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>142</v>
+        <v>398</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3943,22 +4011,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B105">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C105">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D105" s="1">
-        <v>34114</v>
+        <v>33792</v>
       </c>
       <c r="E105" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F105" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3966,22 +4034,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C106">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D106" s="1">
-        <v>33297</v>
+        <v>34149</v>
       </c>
       <c r="E106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F106" t="s">
-        <v>144</v>
+        <v>374</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -3989,45 +4057,45 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B107">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C107">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="D107" s="1">
-        <v>33359</v>
+        <v>33975</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F107" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B108">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C108">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D108" s="1">
-        <v>33598</v>
+        <v>34011</v>
       </c>
       <c r="E108" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F108" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -4035,45 +4103,45 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C109">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="D109" s="1">
-        <v>29154</v>
+        <v>34114</v>
       </c>
       <c r="E109" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="F109" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B110">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C110">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D110" s="1">
-        <v>33729</v>
+        <v>33297</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F110" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -4081,22 +4149,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C111">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="D111" s="1">
-        <v>33394</v>
+        <v>33359</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F111" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -4104,22 +4172,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B112">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C112">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D112" s="1">
-        <v>33032</v>
+        <v>33598</v>
       </c>
       <c r="E112" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F112" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -4130,22 +4198,22 @@
         <v>6</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C113">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D113" s="1">
-        <v>28192</v>
+        <v>29154</v>
       </c>
       <c r="E113" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F113" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4153,19 +4221,19 @@
         <v>3</v>
       </c>
       <c r="B114">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C114">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D114" s="1">
-        <v>29642</v>
+        <v>33675</v>
       </c>
       <c r="E114" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F114" t="s">
-        <v>153</v>
+        <v>406</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -4179,16 +4247,16 @@
         <v>26</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D115" s="1">
-        <v>33606</v>
+        <v>33753</v>
       </c>
       <c r="E115" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="F115" t="s">
-        <v>155</v>
+        <v>397</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -4196,22 +4264,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B116">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C116">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="D116" s="1">
-        <v>32786</v>
+        <v>33036</v>
       </c>
       <c r="E116" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F116" t="s">
-        <v>156</v>
+        <v>394</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -4222,19 +4290,19 @@
         <v>3</v>
       </c>
       <c r="B117">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C117">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="D117" s="1">
-        <v>33282</v>
+        <v>33729</v>
       </c>
       <c r="E117" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -4242,22 +4310,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B118">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C118">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D118" s="1">
-        <v>33473</v>
+        <v>33394</v>
       </c>
       <c r="E118" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -4265,22 +4333,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B119">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C119">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D119" s="1">
-        <v>33192</v>
+        <v>33032</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F119" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -4288,22 +4356,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B120">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="D120" s="1">
-        <v>31813</v>
+        <v>28192</v>
       </c>
       <c r="E120" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F120" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -4311,22 +4379,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B121">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C121">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D121" s="1">
-        <v>33035</v>
+        <v>29642</v>
       </c>
       <c r="E121" t="s">
         <v>102</v>
       </c>
       <c r="F121" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -4334,22 +4402,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B122">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C122">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D122" s="1">
-        <v>31408</v>
+        <v>33606</v>
       </c>
       <c r="E122" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="F122" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -4357,22 +4425,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B123">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C123">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="D123" s="1">
-        <v>30217</v>
+        <v>32786</v>
       </c>
       <c r="E123" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F123" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -4380,22 +4448,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C124">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="D124" s="1">
-        <v>28941</v>
+        <v>33282</v>
       </c>
       <c r="E124" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F124" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -4403,22 +4471,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C125">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="D125" s="1">
-        <v>31659</v>
+        <v>33473</v>
       </c>
       <c r="E125" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="F125" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -4426,22 +4494,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B126">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C126">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="D126" s="1">
-        <v>30544</v>
+        <v>33192</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -4452,19 +4520,19 @@
         <v>3</v>
       </c>
       <c r="B127">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C127">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D127" s="1">
-        <v>33077</v>
+        <v>31813</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="F127" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -4472,22 +4540,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B128">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C128">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D128" s="1">
-        <v>31659</v>
+        <v>33035</v>
       </c>
       <c r="E128" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="F128" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -4498,19 +4566,19 @@
         <v>3</v>
       </c>
       <c r="B129">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C129">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="D129" s="1">
-        <v>32750</v>
+        <v>31408</v>
       </c>
       <c r="E129" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F129" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -4521,19 +4589,19 @@
         <v>6</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="D130" s="1">
-        <v>31252</v>
+        <v>30217</v>
       </c>
       <c r="E130" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F130" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -4544,19 +4612,19 @@
         <v>6</v>
       </c>
       <c r="B131">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C131">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D131" s="1">
-        <v>32967</v>
+        <v>28941</v>
       </c>
       <c r="E131" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F131" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -4567,19 +4635,19 @@
         <v>3</v>
       </c>
       <c r="B132">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C132">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D132" s="1">
-        <v>32938</v>
+        <v>33282</v>
       </c>
       <c r="E132" t="s">
         <v>104</v>
       </c>
       <c r="F132" t="s">
-        <v>174</v>
+        <v>405</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -4587,22 +4655,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B133">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C133">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D133" s="1">
-        <v>32764</v>
+        <v>31659</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="F133" t="s">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -4613,19 +4681,19 @@
         <v>3</v>
       </c>
       <c r="B134">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C134">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D134" s="1">
-        <v>32470</v>
+        <v>30544</v>
       </c>
       <c r="E134" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>373</v>
+        <v>168</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -4633,22 +4701,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B135">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C135">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="D135" s="1">
-        <v>32855</v>
+        <v>33077</v>
       </c>
       <c r="E135" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -4656,22 +4724,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B136">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C136">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1">
-        <v>31226</v>
+        <v>32063</v>
       </c>
       <c r="E136" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>176</v>
+        <v>393</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -4679,25 +4747,25 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B137">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D137" s="1">
-        <v>32129</v>
+        <v>31659</v>
       </c>
       <c r="E137" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="F137" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4705,19 +4773,19 @@
         <v>3</v>
       </c>
       <c r="B138">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="D138" s="1">
-        <v>32219</v>
+        <v>32750</v>
       </c>
       <c r="E138" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="F138" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -4725,25 +4793,25 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B139">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C139">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D139" s="1">
-        <v>32373</v>
+        <v>31252</v>
       </c>
       <c r="E139" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="F139" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4751,19 +4819,19 @@
         <v>6</v>
       </c>
       <c r="B140">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C140">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D140" s="1">
-        <v>28052</v>
+        <v>32967</v>
       </c>
       <c r="E140" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F140" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -4774,19 +4842,19 @@
         <v>3</v>
       </c>
       <c r="B141">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C141">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="D141" s="1">
-        <v>25862</v>
+        <v>32938</v>
       </c>
       <c r="E141" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F141" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -4797,19 +4865,19 @@
         <v>3</v>
       </c>
       <c r="B142">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C142">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="D142" s="1">
-        <v>29145</v>
+        <v>32764</v>
       </c>
       <c r="E142" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
-        <v>182</v>
+        <v>372</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -4817,22 +4885,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B143">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C143">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D143" s="1">
-        <v>29574</v>
+        <v>32470</v>
       </c>
       <c r="E143" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -4843,22 +4911,22 @@
         <v>19</v>
       </c>
       <c r="B144">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C144">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D144" s="1">
-        <v>31637</v>
+        <v>32855</v>
       </c>
       <c r="E144" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="F144" t="s">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4866,19 +4934,19 @@
         <v>6</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C145">
+        <v>128</v>
+      </c>
+      <c r="D145" s="1">
+        <v>31226</v>
+      </c>
+      <c r="E145" t="s">
         <v>92</v>
       </c>
-      <c r="D145" s="1">
-        <v>29159</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
       <c r="F145" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -4886,22 +4954,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B146">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C146">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D146" s="1">
-        <v>30456</v>
+        <v>32847</v>
       </c>
       <c r="E146" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F146" t="s">
-        <v>185</v>
+        <v>396</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -4912,19 +4980,19 @@
         <v>3</v>
       </c>
       <c r="B147">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C147">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D147" s="1">
-        <v>28928</v>
+        <v>32485</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="F147" t="s">
-        <v>186</v>
+        <v>404</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -4932,25 +5000,25 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B148">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C148">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1">
-        <v>27432</v>
+        <v>32129</v>
       </c>
       <c r="E148" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F148" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4958,22 +5026,22 @@
         <v>19</v>
       </c>
       <c r="B149">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C149">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D149" s="1">
-        <v>28850</v>
+        <v>31890</v>
       </c>
       <c r="E149" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="F149" t="s">
-        <v>188</v>
+        <v>392</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4981,19 +5049,19 @@
         <v>3</v>
       </c>
       <c r="B150">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C150">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="D150" s="1">
-        <v>30883</v>
+        <v>32219</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F150" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -5001,22 +5069,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B151">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C151">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D151" s="1">
-        <v>30049</v>
+        <v>32373</v>
       </c>
       <c r="E151" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="F151" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -5024,48 +5092,48 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B152">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C152">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D152" s="1">
-        <v>28591</v>
+        <v>28052</v>
       </c>
       <c r="E152" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B153">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C153">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="D153" s="1">
-        <v>29413</v>
+        <v>25862</v>
       </c>
       <c r="E153" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F153" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5073,88 +5141,88 @@
         <v>3</v>
       </c>
       <c r="B154">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C154">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="D154" s="1">
-        <v>28801</v>
+        <v>29145</v>
       </c>
       <c r="E154" t="s">
         <v>104</v>
       </c>
       <c r="F154" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B155">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C155">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D155" s="1">
-        <v>29266</v>
+        <v>29574</v>
       </c>
       <c r="E155" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F155" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B156">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C156">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D156" s="1">
-        <v>28920</v>
+        <v>31637</v>
       </c>
       <c r="E156" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="F156" t="s">
-        <v>196</v>
+        <v>377</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B157">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C157">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D157" s="1">
-        <v>29791</v>
+        <v>29159</v>
       </c>
       <c r="E157" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -5165,22 +5233,22 @@
         <v>3</v>
       </c>
       <c r="B158">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C158">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D158" s="1">
-        <v>29245</v>
+        <v>30456</v>
       </c>
       <c r="E158" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="F158" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5188,19 +5256,19 @@
         <v>3</v>
       </c>
       <c r="B159">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C159">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D159" s="1">
-        <v>30704</v>
+        <v>28928</v>
       </c>
       <c r="E159" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F159" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -5208,22 +5276,22 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B160">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C160">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D160" s="1">
-        <v>30733</v>
+        <v>27432</v>
       </c>
       <c r="E160" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F160" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -5231,45 +5299,45 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B161">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="D161" s="1">
-        <v>30621</v>
+        <v>28850</v>
       </c>
       <c r="E161" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F161" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B162">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C162">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D162" s="1">
-        <v>30328</v>
+        <v>30883</v>
       </c>
       <c r="E162" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="F162" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -5280,42 +5348,42 @@
         <v>6</v>
       </c>
       <c r="B163">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C163">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="D163" s="1">
-        <v>29490</v>
+        <v>30049</v>
       </c>
       <c r="E163" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F163" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G163">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B164">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C164">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D164" s="1">
-        <v>29844</v>
+        <v>28591</v>
       </c>
       <c r="E164" t="s">
         <v>104</v>
       </c>
       <c r="F164" t="s">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -5323,25 +5391,25 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B165">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C165">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D165" s="1">
-        <v>26819</v>
+        <v>29413</v>
       </c>
       <c r="E165" t="s">
         <v>104</v>
       </c>
       <c r="F165" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5349,45 +5417,45 @@
         <v>3</v>
       </c>
       <c r="B166">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C166">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="D166" s="1">
-        <v>29333</v>
+        <v>28801</v>
       </c>
       <c r="E166" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="F166" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B167">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D167" s="1">
-        <v>28683</v>
+        <v>29266</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="F167" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5395,19 +5463,19 @@
         <v>3</v>
       </c>
       <c r="B168">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C168">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D168" s="1">
-        <v>30078</v>
+        <v>28920</v>
       </c>
       <c r="E168" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="F168" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -5418,19 +5486,19 @@
         <v>3</v>
       </c>
       <c r="B169">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C169">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="D169" s="1">
-        <v>29578</v>
+        <v>29791</v>
       </c>
       <c r="E169" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="F169" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -5441,22 +5509,22 @@
         <v>3</v>
       </c>
       <c r="B170">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C170">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="D170" s="1">
-        <v>30216</v>
+        <v>29245</v>
       </c>
       <c r="E170" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="F170" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5464,19 +5532,19 @@
         <v>3</v>
       </c>
       <c r="B171">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C171">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D171" s="1">
-        <v>25925</v>
+        <v>30704</v>
       </c>
       <c r="E171" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F171" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -5484,22 +5552,22 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B172">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C172">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="D172" s="1">
-        <v>29993</v>
+        <v>30733</v>
       </c>
       <c r="E172" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F172" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -5507,22 +5575,22 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C173">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D173" s="1">
-        <v>29516</v>
+        <v>30621</v>
       </c>
       <c r="E173" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F173" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -5530,22 +5598,22 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B174">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C174">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D174" s="1">
-        <v>28767</v>
+        <v>30328</v>
       </c>
       <c r="E174" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="F174" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -5553,22 +5621,22 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B175">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C175">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D175" s="1">
-        <v>29333</v>
+        <v>29565</v>
       </c>
       <c r="E175" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F175" t="s">
-        <v>218</v>
+        <v>391</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -5579,65 +5647,65 @@
         <v>6</v>
       </c>
       <c r="B176">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C176">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D176" s="1">
-        <v>29516</v>
+        <v>29490</v>
       </c>
       <c r="E176" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="F176" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B177">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="D177" s="1">
-        <v>27870</v>
+        <v>29844</v>
       </c>
       <c r="E177" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="F177" t="s">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B178">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C178">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="D178" s="1">
-        <v>29123</v>
+        <v>26819</v>
       </c>
       <c r="E178" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F178" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -5645,68 +5713,68 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B179">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C179">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D179" s="1">
-        <v>29203</v>
+        <v>29333</v>
       </c>
       <c r="E179" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="F179" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G179">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B180">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C180">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D180" s="1">
-        <v>29203</v>
+        <v>28683</v>
       </c>
       <c r="E180" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F180" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G180">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C181">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D181" s="1">
-        <v>27809</v>
+        <v>30078</v>
       </c>
       <c r="E181" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="F181" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -5714,22 +5782,22 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B182">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D182" s="1">
-        <v>28095</v>
+        <v>29578</v>
       </c>
       <c r="E182" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="F182" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -5737,22 +5805,22 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B183">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C183">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D183" s="1">
-        <v>29930</v>
+        <v>30216</v>
       </c>
       <c r="E183" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="F183" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -5760,22 +5828,22 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B184">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C184">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D184" s="1">
-        <v>29913</v>
+        <v>25925</v>
       </c>
       <c r="E184" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F184" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -5786,19 +5854,19 @@
         <v>3</v>
       </c>
       <c r="B185">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C185">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="D185" s="1">
-        <v>28776</v>
+        <v>29993</v>
       </c>
       <c r="E185" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="F185" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -5806,22 +5874,22 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B186">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C186">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D186" s="1">
-        <v>29780</v>
+        <v>29516</v>
       </c>
       <c r="E186" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="F186" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -5832,19 +5900,19 @@
         <v>3</v>
       </c>
       <c r="B187">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C187">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D187" s="1">
-        <v>29487</v>
+        <v>28767</v>
       </c>
       <c r="E187" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="F187" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -5855,19 +5923,19 @@
         <v>3</v>
       </c>
       <c r="B188">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C188">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="D188" s="1">
-        <v>29691</v>
+        <v>29333</v>
       </c>
       <c r="E188" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="F188" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -5878,19 +5946,19 @@
         <v>6</v>
       </c>
       <c r="B189">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C189">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="D189" s="1">
-        <v>29203</v>
+        <v>29516</v>
       </c>
       <c r="E189" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="F189" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -5898,22 +5966,22 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B190">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C190">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="D190" s="1">
-        <v>29389</v>
+        <v>27870</v>
       </c>
       <c r="E190" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="F190" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -5921,22 +5989,22 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B191">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C191">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D191" s="1">
-        <v>29451</v>
+        <v>29123</v>
       </c>
       <c r="E191" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="F191" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -5944,48 +6012,48 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B192">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C192">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D192" s="1">
-        <v>28972</v>
+        <v>29203</v>
       </c>
       <c r="E192" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F192" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B193">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C193">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D193" s="1">
-        <v>29642</v>
+        <v>29203</v>
       </c>
       <c r="E193" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F193" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5993,19 +6061,19 @@
         <v>6</v>
       </c>
       <c r="B194">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C194">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D194" s="1">
-        <v>28383</v>
+        <v>27809</v>
       </c>
       <c r="E194" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="F194" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -6016,19 +6084,19 @@
         <v>6</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C195">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D195" s="1">
-        <v>29605</v>
+        <v>28095</v>
       </c>
       <c r="E195" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F195" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -6036,22 +6104,22 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B196">
         <v>17</v>
       </c>
       <c r="C196">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D196" s="1">
-        <v>29574</v>
+        <v>29930</v>
       </c>
       <c r="E196" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F196" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -6062,19 +6130,19 @@
         <v>6</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C197">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D197" s="1">
-        <v>27386</v>
+        <v>29913</v>
       </c>
       <c r="E197" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F197" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -6082,22 +6150,22 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B198">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C198">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="D198" s="1">
-        <v>29266</v>
+        <v>28776</v>
       </c>
       <c r="E198" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="F198" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -6105,22 +6173,22 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B199">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C199">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D199" s="1">
-        <v>29326</v>
+        <v>29780</v>
       </c>
       <c r="E199" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="F199" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -6128,22 +6196,22 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B200">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C200">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="D200" s="1">
-        <v>28884</v>
+        <v>29487</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="F200" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -6151,22 +6219,22 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B201">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C201">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="D201" s="1">
-        <v>28685</v>
+        <v>29691</v>
       </c>
       <c r="E201" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F201" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -6174,22 +6242,22 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B202">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C202">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="D202" s="1">
-        <v>26136</v>
+        <v>29203</v>
       </c>
       <c r="E202" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F202" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -6200,19 +6268,19 @@
         <v>6</v>
       </c>
       <c r="B203">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C203">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D203" s="1">
-        <v>28832</v>
+        <v>29389</v>
       </c>
       <c r="E203" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F203" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -6220,22 +6288,22 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B204">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C204">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D204" s="1">
-        <v>29115</v>
+        <v>29451</v>
       </c>
       <c r="E204" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="F204" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -6243,22 +6311,22 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B205">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C205">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D205" s="1">
-        <v>29229</v>
+        <v>28972</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -6266,22 +6334,22 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B206">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C206">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D206" s="1">
-        <v>28902</v>
+        <v>29642</v>
       </c>
       <c r="E206" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>238</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -6292,19 +6360,19 @@
         <v>6</v>
       </c>
       <c r="B207">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C207">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D207" s="1">
-        <v>29157</v>
+        <v>28383</v>
       </c>
       <c r="E207" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="F207" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -6315,19 +6383,19 @@
         <v>6</v>
       </c>
       <c r="B208">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C208">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D208" s="1">
-        <v>29145</v>
+        <v>29605</v>
       </c>
       <c r="E208" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F208" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -6335,22 +6403,22 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B209">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C209">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D209" s="1">
-        <v>28937</v>
+        <v>29574</v>
       </c>
       <c r="E209" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F209" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -6361,19 +6429,19 @@
         <v>6</v>
       </c>
       <c r="B210">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C210">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D210" s="1">
-        <v>28670</v>
+        <v>27386</v>
       </c>
       <c r="E210" t="s">
         <v>56</v>
       </c>
       <c r="F210" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -6384,19 +6452,19 @@
         <v>6</v>
       </c>
       <c r="B211">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C211">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="D211" s="1">
-        <v>29059</v>
+        <v>29266</v>
       </c>
       <c r="E211" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="F211" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -6404,22 +6472,22 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B212">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C212">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D212" s="1">
-        <v>28719</v>
+        <v>29326</v>
       </c>
       <c r="E212" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="F212" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -6430,19 +6498,19 @@
         <v>6</v>
       </c>
       <c r="B213">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C213">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D213" s="1">
-        <v>29061</v>
+        <v>28884</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -6450,22 +6518,22 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B214">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C214">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="D214" s="1">
-        <v>29046</v>
+        <v>28685</v>
       </c>
       <c r="E214" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="F214" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -6473,22 +6541,22 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D215" s="1">
-        <v>27452</v>
+        <v>26136</v>
       </c>
       <c r="E215" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F215" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -6496,22 +6564,22 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B216">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C216">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D216" s="1">
-        <v>28605</v>
+        <v>29110</v>
       </c>
       <c r="E216" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="F216" t="s">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -6519,22 +6587,22 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B217">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C217">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="D217" s="1">
-        <v>27850</v>
+        <v>28832</v>
       </c>
       <c r="E217" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="F217" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -6545,19 +6613,19 @@
         <v>6</v>
       </c>
       <c r="B218">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C218">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="D218" s="1">
-        <v>29035</v>
+        <v>29115</v>
       </c>
       <c r="E218" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="F218" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -6565,22 +6633,22 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B219">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C219">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D219" s="1">
-        <v>28646</v>
+        <v>29229</v>
       </c>
       <c r="E219" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F219" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -6591,19 +6659,19 @@
         <v>3</v>
       </c>
       <c r="B220">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C220">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="D220" s="1">
-        <v>28774</v>
+        <v>28902</v>
       </c>
       <c r="E220" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F220" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -6614,19 +6682,19 @@
         <v>6</v>
       </c>
       <c r="B221">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C221">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D221" s="1">
-        <v>29000</v>
+        <v>29157</v>
       </c>
       <c r="E221" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="F221" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -6634,22 +6702,22 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B222">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C222">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D222" s="1">
-        <v>29005</v>
+        <v>27519</v>
       </c>
       <c r="E222" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="F222" t="s">
-        <v>267</v>
+        <v>401</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -6660,19 +6728,19 @@
         <v>6</v>
       </c>
       <c r="B223">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C223">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D223" s="1">
-        <v>28761</v>
+        <v>29145</v>
       </c>
       <c r="E223" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F223" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -6686,16 +6754,16 @@
         <v>13</v>
       </c>
       <c r="C224">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D224" s="1">
-        <v>28985</v>
+        <v>28937</v>
       </c>
       <c r="E224" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="F224" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -6703,22 +6771,22 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B225">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C225">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D225" s="1">
-        <v>28857</v>
+        <v>28670</v>
       </c>
       <c r="E225" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="F225" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -6729,19 +6797,19 @@
         <v>6</v>
       </c>
       <c r="B226">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C226">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D226" s="1">
-        <v>28864</v>
+        <v>29059</v>
       </c>
       <c r="E226" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F226" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -6752,19 +6820,19 @@
         <v>3</v>
       </c>
       <c r="B227">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C227">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D227" s="1">
-        <v>25980</v>
+        <v>28719</v>
       </c>
       <c r="E227" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -6775,19 +6843,19 @@
         <v>6</v>
       </c>
       <c r="B228">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C228">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D228" s="1">
-        <v>28192</v>
+        <v>29061</v>
       </c>
       <c r="E228" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -6795,22 +6863,22 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B229">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C229">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D229" s="1">
-        <v>28709</v>
+        <v>29046</v>
       </c>
       <c r="E229" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F229" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -6821,19 +6889,19 @@
         <v>6</v>
       </c>
       <c r="B230">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C230">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D230" s="1">
-        <v>28838</v>
+        <v>27452</v>
       </c>
       <c r="E230" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F230" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -6847,16 +6915,16 @@
         <v>11</v>
       </c>
       <c r="C231">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D231" s="1">
-        <v>28622</v>
+        <v>28605</v>
       </c>
       <c r="E231" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F231" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -6864,22 +6932,22 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B232">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C232">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D232" s="1">
-        <v>28872</v>
+        <v>27850</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
       </c>
       <c r="F232" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -6890,19 +6958,19 @@
         <v>6</v>
       </c>
       <c r="B233">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C233">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D233" s="1">
-        <v>28852</v>
+        <v>29035</v>
       </c>
       <c r="E233" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="F233" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -6910,22 +6978,22 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B234">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C234">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="D234" s="1">
-        <v>28853</v>
+        <v>28646</v>
       </c>
       <c r="E234" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="F234" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -6933,25 +7001,25 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B235">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C235">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="D235" s="1">
-        <v>27452</v>
+        <v>28774</v>
       </c>
       <c r="E235" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F235" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="G235">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -6959,19 +7027,19 @@
         <v>6</v>
       </c>
       <c r="B236">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C236">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="D236" s="1">
-        <v>28678</v>
+        <v>29000</v>
       </c>
       <c r="E236" t="s">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="F236" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -6982,19 +7050,19 @@
         <v>6</v>
       </c>
       <c r="B237">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C237">
         <v>87</v>
       </c>
       <c r="D237" s="1">
-        <v>28298</v>
+        <v>29005</v>
       </c>
       <c r="E237" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="F237" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -7005,22 +7073,22 @@
         <v>6</v>
       </c>
       <c r="B238">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C238">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D238" s="1">
-        <v>28271</v>
+        <v>28761</v>
       </c>
       <c r="E238" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F238" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7028,19 +7096,19 @@
         <v>6</v>
       </c>
       <c r="B239">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C239">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D239" s="1">
-        <v>28033</v>
+        <v>28985</v>
       </c>
       <c r="E239" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F239" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -7051,19 +7119,19 @@
         <v>3</v>
       </c>
       <c r="B240">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C240">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D240" s="1">
-        <v>27466</v>
+        <v>28857</v>
       </c>
       <c r="E240" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F240" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -7074,19 +7142,19 @@
         <v>6</v>
       </c>
       <c r="B241">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C241">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D241" s="1">
-        <v>28241</v>
+        <v>28864</v>
       </c>
       <c r="E241" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="F241" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -7094,22 +7162,22 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B242">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C242">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D242" s="1">
-        <v>28333</v>
+        <v>25980</v>
       </c>
       <c r="E242" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="F242" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -7117,22 +7185,22 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B243">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C243">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="D243" s="1">
-        <v>28157</v>
+        <v>28913</v>
       </c>
       <c r="E243" t="s">
         <v>92</v>
       </c>
       <c r="F243" t="s">
-        <v>286</v>
+        <v>389</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -7143,19 +7211,19 @@
         <v>6</v>
       </c>
       <c r="B244">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C244">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D244" s="1">
-        <v>28419</v>
+        <v>28192</v>
       </c>
       <c r="E244" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="F244" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -7166,19 +7234,19 @@
         <v>6</v>
       </c>
       <c r="B245">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C245">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="D245" s="1">
-        <v>28313</v>
+        <v>28709</v>
       </c>
       <c r="E245" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="F245" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -7189,22 +7257,22 @@
         <v>6</v>
       </c>
       <c r="B246">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C246">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D246" s="1">
-        <v>28151</v>
+        <v>28838</v>
       </c>
       <c r="E246" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F246" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7212,19 +7280,19 @@
         <v>6</v>
       </c>
       <c r="B247">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C247">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D247" s="1">
-        <v>27990</v>
+        <v>28622</v>
       </c>
       <c r="E247" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F247" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -7232,22 +7300,22 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C248">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D248" s="1">
-        <v>27424</v>
+        <v>28909</v>
       </c>
       <c r="E248" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="F248" t="s">
-        <v>291</v>
+        <v>388</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -7258,19 +7326,19 @@
         <v>6</v>
       </c>
       <c r="B249">
+        <v>12</v>
+      </c>
+      <c r="C249">
+        <v>128</v>
+      </c>
+      <c r="D249" s="1">
+        <v>28872</v>
+      </c>
+      <c r="E249" t="s">
         <v>9</v>
       </c>
-      <c r="C249">
-        <v>129</v>
-      </c>
-      <c r="D249" s="1">
-        <v>28332</v>
-      </c>
-      <c r="E249" t="s">
-        <v>202</v>
-      </c>
       <c r="F249" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -7281,19 +7349,19 @@
         <v>6</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C250">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D250" s="1">
-        <v>28481</v>
+        <v>28852</v>
       </c>
       <c r="E250" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="F250" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -7304,19 +7372,19 @@
         <v>6</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C251">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="D251" s="1">
-        <v>28286</v>
+        <v>28853</v>
       </c>
       <c r="E251" t="s">
         <v>202</v>
       </c>
       <c r="F251" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -7327,22 +7395,22 @@
         <v>6</v>
       </c>
       <c r="B252">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C252">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="D252" s="1">
-        <v>28429</v>
+        <v>27452</v>
       </c>
       <c r="E252" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="F252" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7350,19 +7418,19 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C253">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="D253" s="1">
-        <v>28237</v>
+        <v>28678</v>
       </c>
       <c r="E253" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="F253" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -7373,19 +7441,19 @@
         <v>6</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C254">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D254" s="1">
-        <v>26977</v>
+        <v>28298</v>
       </c>
       <c r="E254" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F254" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -7393,25 +7461,25 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B255">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C255">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="D255" s="1">
-        <v>28255</v>
+        <v>28271</v>
       </c>
       <c r="E255" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="F255" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7419,19 +7487,19 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C256">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D256" s="1">
-        <v>28362</v>
+        <v>28577</v>
       </c>
       <c r="E256" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F256" t="s">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -7442,19 +7510,19 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D257" s="1">
-        <v>28139</v>
+        <v>28033</v>
       </c>
       <c r="E257" t="s">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="F257" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -7462,22 +7530,22 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B258">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C258">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D258" s="1">
-        <v>27998</v>
+        <v>27466</v>
       </c>
       <c r="E258" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F258" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -7485,22 +7553,22 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B259">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C259">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D259" s="1">
-        <v>27745</v>
+        <v>28241</v>
       </c>
       <c r="E259" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F259" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -7511,19 +7579,19 @@
         <v>6</v>
       </c>
       <c r="B260">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C260">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D260" s="1">
-        <v>28117</v>
+        <v>28333</v>
       </c>
       <c r="E260" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="F260" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -7546,7 +7614,7 @@
         <v>92</v>
       </c>
       <c r="F261" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -7554,22 +7622,22 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B262">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C262">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D262" s="1">
-        <v>20292</v>
+        <v>28419</v>
       </c>
       <c r="E262" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="F262" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -7580,19 +7648,19 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C263">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D263" s="1">
-        <v>27954</v>
+        <v>28313</v>
       </c>
       <c r="E263" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F263" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -7606,19 +7674,19 @@
         <v>8</v>
       </c>
       <c r="C264">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D264" s="1">
-        <v>28145</v>
+        <v>28151</v>
       </c>
       <c r="E264" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="F264" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="G264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -7626,19 +7694,19 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C265">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="D265" s="1">
-        <v>27452</v>
+        <v>27990</v>
       </c>
       <c r="E265" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="F265" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -7649,19 +7717,19 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C266">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D266" s="1">
-        <v>27599</v>
+        <v>27424</v>
       </c>
       <c r="E266" t="s">
         <v>9</v>
       </c>
       <c r="F266" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -7672,19 +7740,19 @@
         <v>6</v>
       </c>
       <c r="B267">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C267">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="D267" s="1">
-        <v>28096</v>
+        <v>28332</v>
       </c>
       <c r="E267" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="F267" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -7695,19 +7763,19 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C268">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D268" s="1">
-        <v>28041</v>
+        <v>28481</v>
       </c>
       <c r="E268" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F268" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -7718,19 +7786,19 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C269">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D269" s="1">
-        <v>28117</v>
+        <v>28286</v>
       </c>
       <c r="E269" t="s">
         <v>202</v>
       </c>
       <c r="F269" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -7741,19 +7809,19 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C270">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D270" s="1">
-        <v>27025</v>
+        <v>28429</v>
       </c>
       <c r="E270" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="F270" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -7764,22 +7832,22 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C271">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="D271" s="1">
-        <v>28081</v>
+        <v>28237</v>
       </c>
       <c r="E271" t="s">
-        <v>316</v>
+        <v>202</v>
       </c>
       <c r="F271" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="G271">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -7787,19 +7855,19 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C272">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D272" s="1">
-        <v>27604</v>
+        <v>26977</v>
       </c>
       <c r="E272" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F272" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -7807,22 +7875,22 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B273">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C273">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D273" s="1">
-        <v>27103</v>
+        <v>28255</v>
       </c>
       <c r="E273" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F273" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -7830,22 +7898,22 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B274">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C274">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D274" s="1">
-        <v>27444</v>
+        <v>28362</v>
       </c>
       <c r="E274" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F274" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -7856,19 +7924,19 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C275">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D275" s="1">
-        <v>27229</v>
+        <v>28139</v>
       </c>
       <c r="E275" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F275" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -7882,16 +7950,16 @@
         <v>7</v>
       </c>
       <c r="C276">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D276" s="1">
-        <v>27984</v>
+        <v>27998</v>
       </c>
       <c r="E276" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F276" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -7899,22 +7967,22 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C277">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D277" s="1">
-        <v>27842</v>
+        <v>27745</v>
       </c>
       <c r="E277" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F277" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -7925,19 +7993,19 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C278">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D278" s="1">
-        <v>27799</v>
+        <v>28117</v>
       </c>
       <c r="E278" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="F278" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -7945,22 +8013,22 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B279">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C279">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D279" s="1">
-        <v>25952</v>
+        <v>28157</v>
       </c>
       <c r="E279" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F279" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -7968,22 +8036,22 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B280">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C280">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D280" s="1">
-        <v>27976</v>
+        <v>20292</v>
       </c>
       <c r="E280" t="s">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="F280" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -7991,22 +8059,22 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B281">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C281">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D281" s="1">
-        <v>26249</v>
+        <v>27954</v>
       </c>
       <c r="E281" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F281" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -8017,19 +8085,19 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C282">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D282" s="1">
-        <v>27501</v>
+        <v>28145</v>
       </c>
       <c r="E282" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="F282" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -8040,19 +8108,19 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C283">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="D283" s="1">
-        <v>27809</v>
+        <v>27452</v>
       </c>
       <c r="E283" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="F283" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -8066,16 +8134,16 @@
         <v>5</v>
       </c>
       <c r="C284">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D284" s="1">
-        <v>27718</v>
+        <v>27599</v>
       </c>
       <c r="E284" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F284" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -8086,19 +8154,19 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C285">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D285" s="1">
-        <v>27339</v>
+        <v>28096</v>
       </c>
       <c r="E285" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F285" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -8106,22 +8174,22 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B286">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C286">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D286" s="1">
-        <v>27221</v>
+        <v>28041</v>
       </c>
       <c r="E286" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F286" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -8129,22 +8197,22 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B287">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C287">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D287" s="1">
-        <v>27562</v>
+        <v>28137</v>
       </c>
       <c r="E287" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F287" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -8152,22 +8220,22 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B288">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C288">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="D288" s="1">
-        <v>27562</v>
+        <v>27751</v>
       </c>
       <c r="E288" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="F288" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -8178,19 +8246,19 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C289">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D289" s="1">
-        <v>27347</v>
+        <v>28117</v>
       </c>
       <c r="E289" t="s">
-        <v>328</v>
+        <v>202</v>
       </c>
       <c r="F289" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -8201,19 +8269,19 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C290">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D290" s="1">
-        <v>27452</v>
+        <v>27025</v>
       </c>
       <c r="E290" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F290" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -8224,22 +8292,22 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C291">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D291" s="1">
-        <v>27729</v>
+        <v>28081</v>
       </c>
       <c r="E291" t="s">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="F291" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="G291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -8250,16 +8318,16 @@
         <v>5</v>
       </c>
       <c r="C292">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D292" s="1">
-        <v>27633</v>
+        <v>27604</v>
       </c>
       <c r="E292" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F292" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -8270,19 +8338,19 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C293">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D293" s="1">
-        <v>27345</v>
+        <v>27103</v>
       </c>
       <c r="E293" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F293" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -8296,16 +8364,16 @@
         <v>31</v>
       </c>
       <c r="C294">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D294" s="1">
-        <v>27466</v>
+        <v>27444</v>
       </c>
       <c r="E294" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F294" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -8319,16 +8387,16 @@
         <v>4</v>
       </c>
       <c r="C295">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="D295" s="1">
-        <v>27386</v>
+        <v>27229</v>
       </c>
       <c r="E295" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F295" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -8339,19 +8407,19 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C296">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="D296" s="1">
-        <v>27345</v>
+        <v>27984</v>
       </c>
       <c r="E296" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F296" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -8362,19 +8430,19 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C297">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D297" s="1">
-        <v>27345</v>
+        <v>27842</v>
       </c>
       <c r="E297" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="F297" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -8385,19 +8453,19 @@
         <v>6</v>
       </c>
       <c r="B298">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C298">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D298" s="1">
-        <v>27075</v>
+        <v>27799</v>
       </c>
       <c r="E298" t="s">
-        <v>344</v>
+        <v>9</v>
       </c>
       <c r="F298" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -8408,19 +8476,19 @@
         <v>3</v>
       </c>
       <c r="B299">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C299">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="D299" s="1">
-        <v>27134</v>
+        <v>25952</v>
       </c>
       <c r="E299" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F299" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -8428,22 +8496,22 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B300">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C300">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D300" s="1">
-        <v>27201</v>
+        <v>27976</v>
       </c>
       <c r="E300" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="F300" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -8451,45 +8519,45 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B301">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C301">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D301" s="1">
-        <v>26918</v>
+        <v>27519</v>
       </c>
       <c r="E301" t="s">
-        <v>348</v>
+        <v>9</v>
       </c>
       <c r="F301" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="G301">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C302">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D302" s="1">
-        <v>27116</v>
+        <v>26249</v>
       </c>
       <c r="E302" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F302" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="G302">
         <v>1</v>
@@ -8500,19 +8568,19 @@
         <v>6</v>
       </c>
       <c r="B303">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C303">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="D303" s="1">
-        <v>26794</v>
+        <v>27501</v>
       </c>
       <c r="E303" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="F303" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="G303">
         <v>1</v>
@@ -8523,19 +8591,19 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C304">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D304" s="1">
-        <v>27075</v>
+        <v>27809</v>
       </c>
       <c r="E304" t="s">
-        <v>160</v>
+        <v>328</v>
       </c>
       <c r="F304" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -8543,22 +8611,22 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B305">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C305">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="D305" s="1">
-        <v>25029</v>
+        <v>27718</v>
       </c>
       <c r="E305" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F305" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -8569,19 +8637,19 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C306">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="D306" s="1">
-        <v>26904</v>
+        <v>27339</v>
       </c>
       <c r="E306" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="F306" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -8589,22 +8657,22 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B307">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C307">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="D307" s="1">
-        <v>26877</v>
+        <v>27221</v>
       </c>
       <c r="E307" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F307" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="G307">
         <v>1</v>
@@ -8612,22 +8680,22 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C308">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D308" s="1">
-        <v>26757</v>
+        <v>27562</v>
       </c>
       <c r="E308" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="F308" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="G308">
         <v>1</v>
@@ -8635,22 +8703,22 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C309">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D309" s="1">
-        <v>26471</v>
+        <v>27562</v>
       </c>
       <c r="E309" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F309" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="G309">
         <v>1</v>
@@ -8661,19 +8729,19 @@
         <v>6</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C310">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D310" s="1">
-        <v>24658</v>
+        <v>27347</v>
       </c>
       <c r="E310" t="s">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="F310" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="G310">
         <v>1</v>
@@ -8681,25 +8749,25 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B311">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C311">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D311" s="1">
-        <v>23860</v>
+        <v>27452</v>
       </c>
       <c r="E311" t="s">
-        <v>359</v>
+        <v>12</v>
       </c>
       <c r="F311" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="G311">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -8707,19 +8775,19 @@
         <v>6</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C312">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D312" s="1">
-        <v>24658</v>
+        <v>27729</v>
       </c>
       <c r="E312" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F312" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="G312">
         <v>1</v>
@@ -8727,22 +8795,22 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B313">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C313">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D313" s="1">
-        <v>25916</v>
+        <v>27633</v>
       </c>
       <c r="E313" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="F313" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="G313">
         <v>1</v>
@@ -8750,22 +8818,22 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B314">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C314">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D314" s="1">
-        <v>25925</v>
+        <v>27345</v>
       </c>
       <c r="E314" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F314" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="G314">
         <v>1</v>
@@ -8776,19 +8844,19 @@
         <v>3</v>
       </c>
       <c r="B315">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C315">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D315" s="1">
-        <v>25804</v>
+        <v>27606</v>
       </c>
       <c r="E315" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="F315" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="G315">
         <v>1</v>
@@ -8799,19 +8867,19 @@
         <v>3</v>
       </c>
       <c r="B316">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C316">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="D316" s="1">
-        <v>25804</v>
+        <v>27466</v>
       </c>
       <c r="E316" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F316" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G316">
         <v>1</v>
@@ -8819,24 +8887,553 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>6</v>
+      </c>
+      <c r="B317">
+        <v>4</v>
+      </c>
+      <c r="C317">
+        <v>109</v>
+      </c>
+      <c r="D317" s="1">
+        <v>27386</v>
+      </c>
+      <c r="E317" t="s">
+        <v>104</v>
+      </c>
+      <c r="F317" t="s">
+        <v>341</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>6</v>
+      </c>
+      <c r="B318">
+        <v>4</v>
+      </c>
+      <c r="C318">
+        <v>84</v>
+      </c>
+      <c r="D318" s="1">
+        <v>27345</v>
+      </c>
+      <c r="E318" t="s">
+        <v>45</v>
+      </c>
+      <c r="F318" t="s">
+        <v>342</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>3</v>
+      </c>
+      <c r="B319">
+        <v>29</v>
+      </c>
+      <c r="C319">
+        <v>139</v>
+      </c>
+      <c r="D319" s="1">
+        <v>27145</v>
+      </c>
+      <c r="E319" t="s">
+        <v>9</v>
+      </c>
+      <c r="F319" t="s">
+        <v>399</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+      <c r="C320">
+        <v>86</v>
+      </c>
+      <c r="D320" s="1">
+        <v>27345</v>
+      </c>
+      <c r="E320" t="s">
+        <v>125</v>
+      </c>
+      <c r="F320" t="s">
+        <v>343</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>6</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321">
+        <v>93</v>
+      </c>
+      <c r="D321" s="1">
+        <v>27075</v>
+      </c>
+      <c r="E321" t="s">
+        <v>344</v>
+      </c>
+      <c r="F321" t="s">
+        <v>345</v>
+      </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>3</v>
+      </c>
+      <c r="B322">
+        <v>29</v>
+      </c>
+      <c r="C322">
+        <v>135</v>
+      </c>
+      <c r="D322" s="1">
+        <v>27134</v>
+      </c>
+      <c r="E322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F322" t="s">
+        <v>346</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>3</v>
+      </c>
+      <c r="B323">
+        <v>30</v>
+      </c>
+      <c r="C323">
+        <v>25</v>
+      </c>
+      <c r="D323" s="1">
+        <v>27201</v>
+      </c>
+      <c r="E323" t="s">
+        <v>160</v>
+      </c>
+      <c r="F323" t="s">
+        <v>347</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
         <v>19</v>
       </c>
-      <c r="B317">
+      <c r="B324">
+        <v>16</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324" s="1">
+        <v>26918</v>
+      </c>
+      <c r="E324" t="s">
+        <v>348</v>
+      </c>
+      <c r="F324" t="s">
+        <v>349</v>
+      </c>
+      <c r="G324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>6</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325">
+        <v>120</v>
+      </c>
+      <c r="D325" s="1">
+        <v>27116</v>
+      </c>
+      <c r="E325" t="s">
+        <v>127</v>
+      </c>
+      <c r="F325" t="s">
+        <v>350</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>6</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326">
+        <v>106</v>
+      </c>
+      <c r="D326" s="1">
+        <v>26794</v>
+      </c>
+      <c r="E326" t="s">
+        <v>160</v>
+      </c>
+      <c r="F326" t="s">
+        <v>351</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>6</v>
+      </c>
+      <c r="B327">
+        <v>3</v>
+      </c>
+      <c r="C327">
+        <v>94</v>
+      </c>
+      <c r="D327" s="1">
+        <v>27075</v>
+      </c>
+      <c r="E327" t="s">
+        <v>160</v>
+      </c>
+      <c r="F327" t="s">
+        <v>352</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>3</v>
+      </c>
+      <c r="B328">
+        <v>24</v>
+      </c>
+      <c r="C328">
+        <v>16</v>
+      </c>
+      <c r="D328" s="1">
+        <v>25029</v>
+      </c>
+      <c r="E328" t="s">
+        <v>50</v>
+      </c>
+      <c r="F328" t="s">
+        <v>353</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329">
+        <v>143</v>
+      </c>
+      <c r="D329" s="1">
+        <v>26904</v>
+      </c>
+      <c r="E329" t="s">
+        <v>92</v>
+      </c>
+      <c r="F329" t="s">
+        <v>354</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>6</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="C330">
+        <v>133</v>
+      </c>
+      <c r="D330" s="1">
+        <v>26877</v>
+      </c>
+      <c r="E330" t="s">
+        <v>125</v>
+      </c>
+      <c r="F330" t="s">
+        <v>355</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>6</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+      <c r="C331">
+        <v>91</v>
+      </c>
+      <c r="D331" s="1">
+        <v>26757</v>
+      </c>
+      <c r="E331" t="s">
+        <v>92</v>
+      </c>
+      <c r="F331" t="s">
+        <v>356</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>6</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>146</v>
+      </c>
+      <c r="D332" s="1">
+        <v>26471</v>
+      </c>
+      <c r="E332" t="s">
+        <v>56</v>
+      </c>
+      <c r="F332" t="s">
+        <v>357</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>6</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>21</v>
+      </c>
+      <c r="D333" s="1">
+        <v>24658</v>
+      </c>
+      <c r="E333" t="s">
+        <v>47</v>
+      </c>
+      <c r="F333" t="s">
+        <v>358</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>19</v>
+      </c>
+      <c r="B334">
+        <v>14</v>
+      </c>
+      <c r="C334">
+        <v>73</v>
+      </c>
+      <c r="D334" s="1">
+        <v>23860</v>
+      </c>
+      <c r="E334" t="s">
+        <v>359</v>
+      </c>
+      <c r="F334" t="s">
+        <v>381</v>
+      </c>
+      <c r="G334">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>6</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>21</v>
+      </c>
+      <c r="D335" s="1">
+        <v>24658</v>
+      </c>
+      <c r="E335" t="s">
+        <v>47</v>
+      </c>
+      <c r="F335" t="s">
+        <v>360</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>3</v>
+      </c>
+      <c r="B336">
+        <v>26</v>
+      </c>
+      <c r="C336">
+        <v>40</v>
+      </c>
+      <c r="D336" s="1">
+        <v>25916</v>
+      </c>
+      <c r="E336" t="s">
+        <v>104</v>
+      </c>
+      <c r="F336" t="s">
+        <v>361</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>3</v>
+      </c>
+      <c r="B337">
+        <v>26</v>
+      </c>
+      <c r="C337">
+        <v>62</v>
+      </c>
+      <c r="D337" s="1">
+        <v>25925</v>
+      </c>
+      <c r="E337" t="s">
+        <v>50</v>
+      </c>
+      <c r="F337" t="s">
+        <v>362</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>3</v>
+      </c>
+      <c r="B338">
+        <v>25</v>
+      </c>
+      <c r="C338">
+        <v>131</v>
+      </c>
+      <c r="D338" s="1">
+        <v>25804</v>
+      </c>
+      <c r="E338" t="s">
+        <v>140</v>
+      </c>
+      <c r="F338" t="s">
+        <v>363</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>3</v>
+      </c>
+      <c r="B339">
+        <v>25</v>
+      </c>
+      <c r="C339">
+        <v>131</v>
+      </c>
+      <c r="D339" s="1">
+        <v>25804</v>
+      </c>
+      <c r="E339" t="s">
+        <v>140</v>
+      </c>
+      <c r="F339" t="s">
+        <v>364</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>19</v>
+      </c>
+      <c r="B340">
         <v>15</v>
       </c>
-      <c r="C317">
+      <c r="C340">
         <v>39</v>
       </c>
-      <c r="D317" s="1">
+      <c r="D340" s="1">
         <v>24743</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E340" t="s">
         <v>92</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F340" t="s">
         <v>365</v>
       </c>
-      <c r="G317">
+      <c r="G340">
         <v>2</v>
       </c>
     </row>

--- a/data/cc.xlsx
+++ b/data/cc.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\hummaps-admin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717FD479-0AD3-4C9A-9A37-8722E0E287B8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="409">
   <si>
     <t>MAPTYPE</t>
   </si>
@@ -1248,6 +1249,9 @@
   </si>
   <si>
     <t>1995-5886-1</t>
+  </si>
+  <si>
+    <t>2014-15239-4</t>
   </si>
 </sst>
 </file>
@@ -1600,11 +1604,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G340"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1688,25 +1690,25 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
-        <v>41548</v>
+        <v>41711</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1714,19 +1716,19 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>28884</v>
+        <v>41548</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1734,22 +1736,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1">
-        <v>41507</v>
+        <v>28884</v>
       </c>
       <c r="E6" t="s">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1757,22 +1759,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1">
-        <v>28488</v>
+        <v>41507</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>370</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1780,25 +1782,25 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1">
-        <v>40674</v>
+        <v>28488</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1809,16 +1811,16 @@
         <v>69</v>
       </c>
       <c r="C9">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>41018</v>
+        <v>40674</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1829,68 +1831,68 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1">
-        <v>40655</v>
+        <v>41018</v>
       </c>
       <c r="E10" t="s">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1">
-        <v>40373</v>
+        <v>40655</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>30293</v>
+        <v>40373</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1898,19 +1900,19 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>31047</v>
+        <v>30293</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1921,19 +1923,19 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C14">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1">
-        <v>38049</v>
+        <v>31047</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1944,19 +1946,19 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C15">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1">
-        <v>33954</v>
+        <v>38049</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1967,22 +1969,22 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1">
-        <v>40602</v>
+        <v>33954</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1993,16 +1995,16 @@
         <v>68</v>
       </c>
       <c r="C17">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1">
-        <v>40515</v>
+        <v>40602</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2013,22 +2015,22 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1">
-        <v>40038</v>
+        <v>40515</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,91 +2038,91 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D19" s="1">
-        <v>20919</v>
+        <v>40038</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20919</v>
+      </c>
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>35956</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>40050</v>
+        <v>35956</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="D22" s="1">
-        <v>40095</v>
+        <v>40050</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2128,22 +2130,22 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1">
-        <v>39918</v>
+        <v>40095</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,22 +2153,22 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
-        <v>40087</v>
+        <v>39918</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2174,19 +2176,19 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
-        <v>40038</v>
+        <v>40087</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2200,16 +2202,16 @@
         <v>66</v>
       </c>
       <c r="C26">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="D26" s="1">
-        <v>39996</v>
+        <v>40038</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2217,68 +2219,68 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C27">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1">
-        <v>28312</v>
+        <v>39996</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1">
-        <v>35419</v>
+        <v>28312</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="D29" s="1">
-        <v>24084</v>
+        <v>35419</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2286,48 +2288,48 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1">
-        <v>38280</v>
+        <v>24084</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="D31" s="1">
-        <v>33746</v>
+        <v>38280</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2335,65 +2337,65 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1">
-        <v>39399</v>
+        <v>33746</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1">
-        <v>39434</v>
+        <v>39399</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>27417</v>
+        <v>39434</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2401,114 +2403,114 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1">
-        <v>39259</v>
+        <v>27417</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1">
-        <v>29266</v>
+        <v>39259</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="D37" s="1">
-        <v>38807</v>
+        <v>29266</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C38">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1">
-        <v>37601</v>
+        <v>38807</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C39">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1">
-        <v>36825</v>
+        <v>37601</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2522,42 +2524,42 @@
         <v>30</v>
       </c>
       <c r="C40">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="D40" s="1">
-        <v>36481</v>
+        <v>36825</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>69</v>
+      </c>
+      <c r="D41" s="1">
+        <v>36481</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
         <v>63</v>
       </c>
-      <c r="C41">
-        <v>26</v>
-      </c>
-      <c r="D41" s="1">
-        <v>38342</v>
-      </c>
-      <c r="E41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" t="s">
-        <v>64</v>
-      </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2565,19 +2567,19 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D42" s="1">
-        <v>36637</v>
+        <v>38342</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2585,22 +2587,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43">
         <v>13</v>
       </c>
-      <c r="C43">
-        <v>103</v>
-      </c>
       <c r="D43" s="1">
-        <v>29018</v>
+        <v>36637</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2608,45 +2610,45 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1">
-        <v>38520</v>
+        <v>29018</v>
       </c>
       <c r="E44" t="s">
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="D45" s="1">
-        <v>38636</v>
+        <v>38520</v>
       </c>
       <c r="E45" t="s">
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -2660,19 +2662,19 @@
         <v>32</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D46" s="1">
-        <v>38331</v>
+        <v>38636</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2683,16 +2685,16 @@
         <v>32</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>38553</v>
+        <v>38331</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2700,22 +2702,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C48">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1">
-        <v>38191</v>
+        <v>38553</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2723,22 +2725,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C49">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D49" s="1">
-        <v>38245</v>
+        <v>38191</v>
       </c>
       <c r="E49" t="s">
         <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2746,45 +2748,45 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C50">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D50" s="1">
-        <v>38498</v>
+        <v>38245</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C51">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D51" s="1">
-        <v>35537</v>
+        <v>38498</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -2792,45 +2794,45 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1">
-        <v>35002</v>
+        <v>35537</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B53">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1">
-        <v>31621</v>
+        <v>35002</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2838,91 +2840,91 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1">
-        <v>37239</v>
+        <v>31621</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C55">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
-        <v>37928</v>
+        <v>37239</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C56">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D56" s="1">
-        <v>37663</v>
+        <v>37928</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D57" s="1">
-        <v>37215</v>
+        <v>37663</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -2930,22 +2932,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D58" s="1">
-        <v>37237</v>
+        <v>37215</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2959,39 +2961,39 @@
         <v>23</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1">
-        <v>37342</v>
+        <v>37237</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C60">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D60" s="1">
-        <v>33196</v>
+        <v>37342</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2999,22 +3001,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C61">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1">
-        <v>37036</v>
+        <v>33196</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -3025,19 +3027,19 @@
         <v>3</v>
       </c>
       <c r="B62">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D62" s="1">
-        <v>31047</v>
+        <v>37036</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3045,25 +3047,25 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C63">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D63" s="1">
-        <v>36859</v>
+        <v>31047</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,39 +3076,39 @@
         <v>30</v>
       </c>
       <c r="C64">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D64" s="1">
-        <v>36998</v>
+        <v>36859</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="D65" s="1">
-        <v>36277</v>
+        <v>36998</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3120,16 +3122,16 @@
         <v>59</v>
       </c>
       <c r="C66">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D66" s="1">
-        <v>36327</v>
+        <v>36277</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3137,114 +3139,114 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B67">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C67">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D67" s="1">
-        <v>36201</v>
+        <v>36327</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C68">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D68" s="1">
-        <v>36209</v>
+        <v>36201</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B69">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C69">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D69" s="1">
-        <v>36313</v>
+        <v>36209</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B70">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C70">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D70" s="1">
-        <v>36076</v>
+        <v>36313</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C71">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D71" s="1">
-        <v>36018</v>
+        <v>36076</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -3255,42 +3257,42 @@
         <v>3</v>
       </c>
       <c r="B72">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D72" s="1">
-        <v>31953</v>
+        <v>36018</v>
       </c>
       <c r="E72" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C73">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D73" s="1">
-        <v>32255</v>
+        <v>31953</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -3298,68 +3300,68 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C74">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="D74" s="1">
-        <v>35054</v>
+        <v>32255</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C75">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D75" s="1">
-        <v>35243</v>
+        <v>35054</v>
       </c>
       <c r="E75" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B76">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C76">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D76" s="1">
-        <v>34841</v>
+        <v>35243</v>
       </c>
       <c r="E76" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3370,19 +3372,19 @@
         <v>3</v>
       </c>
       <c r="B77">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C77">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D77" s="1">
-        <v>33751</v>
+        <v>34841</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3393,65 +3395,65 @@
         <v>3</v>
       </c>
       <c r="B78">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C78">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D78" s="1">
-        <v>34631</v>
+        <v>33751</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C79">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D79" s="1">
-        <v>33393</v>
+        <v>34631</v>
       </c>
       <c r="E79" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C80">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D80" s="1">
-        <v>35082</v>
+        <v>33393</v>
       </c>
       <c r="E80" t="s">
         <v>102</v>
       </c>
       <c r="F80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -3459,22 +3461,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C81">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="D81" s="1">
-        <v>34871</v>
+        <v>35082</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -3485,22 +3487,22 @@
         <v>3</v>
       </c>
       <c r="B82">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C82">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="D82" s="1">
-        <v>34381</v>
+        <v>34871</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3508,19 +3510,19 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C83">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="D83" s="1">
-        <v>34772</v>
+        <v>34381</v>
       </c>
       <c r="E83" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3531,19 +3533,19 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C84">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D84" s="1">
-        <v>30977</v>
+        <v>34772</v>
       </c>
       <c r="E84" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F84" t="s">
-        <v>403</v>
+        <v>117</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3551,22 +3553,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C85">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="D85" s="1">
-        <v>34236</v>
+        <v>30977</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>403</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3574,68 +3576,68 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B86">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C86">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="D86" s="1">
-        <v>34718</v>
+        <v>34236</v>
       </c>
       <c r="E86" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B87">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C87">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="D87" s="1">
-        <v>34654</v>
+        <v>34718</v>
       </c>
       <c r="E87" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F87" t="s">
-        <v>407</v>
+        <v>120</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D88" s="1">
-        <v>34558</v>
+        <v>34654</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F88" t="s">
-        <v>121</v>
+        <v>407</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -3643,22 +3645,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B89">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C89">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D89" s="1">
-        <v>34480</v>
+        <v>34558</v>
       </c>
       <c r="E89" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3666,22 +3668,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B90">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C90">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D90" s="1">
-        <v>32791</v>
+        <v>34480</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3689,22 +3691,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B91">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D91" s="1">
-        <v>34382</v>
+        <v>32791</v>
       </c>
       <c r="E91" t="s">
         <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3712,22 +3714,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B92">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C92">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1">
-        <v>29789</v>
+        <v>34382</v>
       </c>
       <c r="E92" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3735,22 +3737,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B93">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C93">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D93" s="1">
-        <v>28830</v>
+        <v>29789</v>
       </c>
       <c r="E93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3758,22 +3760,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B94">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C94">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D94" s="1">
-        <v>30992</v>
+        <v>28830</v>
       </c>
       <c r="E94" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3784,19 +3786,19 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C95">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D95" s="1">
-        <v>33729</v>
+        <v>30992</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3804,22 +3806,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B96">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C96">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="D96" s="1">
-        <v>34393</v>
+        <v>33729</v>
       </c>
       <c r="E96" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3827,22 +3829,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B97">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="D97" s="1">
-        <v>34074</v>
+        <v>34393</v>
       </c>
       <c r="E97" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="F97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3856,16 +3858,16 @@
         <v>54</v>
       </c>
       <c r="C98">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D98" s="1">
-        <v>34130</v>
+        <v>34074</v>
       </c>
       <c r="E98" t="s">
         <v>59</v>
       </c>
       <c r="F98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3873,22 +3875,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B99">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D99" s="1">
-        <v>34323</v>
+        <v>34130</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3896,22 +3898,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B100">
+        <v>21</v>
+      </c>
+      <c r="C100">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1">
+        <v>34323</v>
+      </c>
+      <c r="E100" t="s">
         <v>54</v>
       </c>
-      <c r="C100">
-        <v>114</v>
-      </c>
-      <c r="D100" s="1">
-        <v>34319</v>
-      </c>
-      <c r="E100" t="s">
-        <v>59</v>
-      </c>
       <c r="F100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3922,19 +3924,19 @@
         <v>3</v>
       </c>
       <c r="B101">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C101">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D101" s="1">
-        <v>34046</v>
+        <v>34319</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3942,22 +3944,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B102">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C102">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="D102" s="1">
-        <v>32689</v>
+        <v>34046</v>
       </c>
       <c r="E102" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -3965,22 +3967,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C103">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="D103" s="1">
-        <v>34236</v>
+        <v>32689</v>
       </c>
       <c r="E103" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="F103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3988,22 +3990,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B104">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C104">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D104" s="1">
-        <v>33977</v>
+        <v>34236</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F104" t="s">
-        <v>398</v>
+        <v>138</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -4011,22 +4013,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B105">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C105">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="D105" s="1">
-        <v>33792</v>
+        <v>33977</v>
       </c>
       <c r="E105" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>139</v>
+        <v>398</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -4034,22 +4036,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B106">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D106" s="1">
-        <v>34149</v>
+        <v>33792</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -4057,68 +4059,68 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B107">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C107">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="D107" s="1">
-        <v>33975</v>
+        <v>34149</v>
       </c>
       <c r="E107" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F107" t="s">
-        <v>141</v>
+        <v>374</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B108">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="D108" s="1">
-        <v>34011</v>
+        <v>33975</v>
       </c>
       <c r="E108" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B109">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C109">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D109" s="1">
-        <v>34114</v>
+        <v>34011</v>
       </c>
       <c r="E109" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -4126,22 +4128,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>54</v>
+      </c>
+      <c r="C110">
         <v>19</v>
       </c>
-      <c r="B110">
-        <v>20</v>
-      </c>
-      <c r="C110">
-        <v>18</v>
-      </c>
       <c r="D110" s="1">
-        <v>33297</v>
+        <v>34114</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -4149,22 +4151,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B111">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D111" s="1">
-        <v>33359</v>
+        <v>33297</v>
       </c>
       <c r="E111" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -4175,19 +4177,19 @@
         <v>3</v>
       </c>
       <c r="B112">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C112">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D112" s="1">
-        <v>33598</v>
+        <v>33359</v>
       </c>
       <c r="E112" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -4195,68 +4197,68 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B113">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C113">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D113" s="1">
-        <v>29154</v>
+        <v>33598</v>
       </c>
       <c r="E113" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="F113" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B114">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C114">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="D114" s="1">
-        <v>33675</v>
+        <v>29154</v>
       </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="F114" t="s">
-        <v>406</v>
+        <v>148</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B115">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C115">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="D115" s="1">
-        <v>33753</v>
+        <v>33675</v>
       </c>
       <c r="E115" t="s">
         <v>75</v>
       </c>
       <c r="F115" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -4264,22 +4266,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B116">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C116">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="D116" s="1">
-        <v>33036</v>
+        <v>33753</v>
       </c>
       <c r="E116" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F116" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -4287,22 +4289,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B117">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C117">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="D117" s="1">
-        <v>33729</v>
+        <v>33036</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F117" t="s">
-        <v>149</v>
+        <v>394</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -4310,22 +4312,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B118">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C118">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D118" s="1">
-        <v>33394</v>
+        <v>33729</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -4336,19 +4338,19 @@
         <v>19</v>
       </c>
       <c r="B119">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C119">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="D119" s="1">
-        <v>33032</v>
+        <v>33394</v>
       </c>
       <c r="E119" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -4356,22 +4358,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C120">
         <v>136</v>
       </c>
       <c r="D120" s="1">
-        <v>28192</v>
+        <v>33032</v>
       </c>
       <c r="E120" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -4379,22 +4381,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B121">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D121" s="1">
-        <v>29642</v>
+        <v>28192</v>
       </c>
       <c r="E121" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -4402,22 +4404,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B122">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="D122" s="1">
-        <v>33606</v>
+        <v>29642</v>
       </c>
       <c r="E122" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="F122" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -4425,22 +4427,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B123">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D123" s="1">
-        <v>32786</v>
+        <v>33606</v>
       </c>
       <c r="E123" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="F123" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -4451,19 +4453,19 @@
         <v>3</v>
       </c>
       <c r="B124">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C124">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="D124" s="1">
-        <v>33282</v>
+        <v>32786</v>
       </c>
       <c r="E124" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F124" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -4474,19 +4476,19 @@
         <v>3</v>
       </c>
       <c r="B125">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C125">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="D125" s="1">
-        <v>33473</v>
+        <v>33282</v>
       </c>
       <c r="E125" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -4494,22 +4496,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B126">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C126">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D126" s="1">
-        <v>33192</v>
+        <v>33473</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -4517,22 +4519,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B127">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C127">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="D127" s="1">
-        <v>31813</v>
+        <v>33192</v>
       </c>
       <c r="E127" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -4540,22 +4542,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B128">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C128">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D128" s="1">
-        <v>33035</v>
+        <v>31813</v>
       </c>
       <c r="E128" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="F128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -4563,22 +4565,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B129">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C129">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D129" s="1">
-        <v>31408</v>
+        <v>33035</v>
       </c>
       <c r="E129" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -4586,22 +4588,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C130">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D130" s="1">
-        <v>30217</v>
+        <v>31408</v>
       </c>
       <c r="E130" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -4612,19 +4614,19 @@
         <v>6</v>
       </c>
       <c r="B131">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D131" s="1">
-        <v>28941</v>
+        <v>30217</v>
       </c>
       <c r="E131" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -4632,22 +4634,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B132">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C132">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="D132" s="1">
-        <v>33282</v>
+        <v>28941</v>
       </c>
       <c r="E132" t="s">
         <v>104</v>
       </c>
       <c r="F132" t="s">
-        <v>405</v>
+        <v>165</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -4655,22 +4657,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B133">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C133">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D133" s="1">
-        <v>31659</v>
+        <v>33282</v>
       </c>
       <c r="E133" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="F133" t="s">
-        <v>167</v>
+        <v>405</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -4678,22 +4680,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B134">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C134">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D134" s="1">
-        <v>30544</v>
+        <v>31659</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="F134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -4704,19 +4706,19 @@
         <v>3</v>
       </c>
       <c r="B135">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D135" s="1">
-        <v>33077</v>
+        <v>30544</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -4724,22 +4726,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B136">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D136" s="1">
-        <v>32063</v>
+        <v>33077</v>
       </c>
       <c r="E136" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>393</v>
+        <v>169</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -4750,19 +4752,19 @@
         <v>19</v>
       </c>
       <c r="B137">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C137">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1">
-        <v>31659</v>
+        <v>32063</v>
       </c>
       <c r="E137" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>170</v>
+        <v>393</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -4770,22 +4772,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B138">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C138">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D138" s="1">
-        <v>32750</v>
+        <v>31659</v>
       </c>
       <c r="E138" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="F138" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -4793,22 +4795,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B139">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C139">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D139" s="1">
-        <v>31252</v>
+        <v>32750</v>
       </c>
       <c r="E139" t="s">
         <v>59</v>
       </c>
       <c r="F139" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -4819,19 +4821,19 @@
         <v>6</v>
       </c>
       <c r="B140">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C140">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="D140" s="1">
-        <v>32967</v>
+        <v>31252</v>
       </c>
       <c r="E140" t="s">
         <v>59</v>
       </c>
       <c r="F140" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -4839,22 +4841,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B141">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C141">
         <v>94</v>
       </c>
       <c r="D141" s="1">
-        <v>32938</v>
+        <v>32967</v>
       </c>
       <c r="E141" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="F141" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -4865,19 +4867,19 @@
         <v>3</v>
       </c>
       <c r="B142">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C142">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="D142" s="1">
-        <v>32764</v>
+        <v>32938</v>
       </c>
       <c r="E142" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="F142" t="s">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -4888,19 +4890,19 @@
         <v>3</v>
       </c>
       <c r="B143">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C143">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D143" s="1">
-        <v>32470</v>
+        <v>32764</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F143" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -4908,22 +4910,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B144">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C144">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D144" s="1">
-        <v>32855</v>
+        <v>32470</v>
       </c>
       <c r="E144" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F144" t="s">
-        <v>175</v>
+        <v>373</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -4931,22 +4933,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B145">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C145">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D145" s="1">
-        <v>31226</v>
+        <v>32855</v>
       </c>
       <c r="E145" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F145" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -4957,19 +4959,19 @@
         <v>6</v>
       </c>
       <c r="B146">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C146">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="D146" s="1">
-        <v>32847</v>
+        <v>31226</v>
       </c>
       <c r="E146" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F146" t="s">
-        <v>396</v>
+        <v>176</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -4977,22 +4979,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B147">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C147">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="D147" s="1">
-        <v>32485</v>
+        <v>32847</v>
       </c>
       <c r="E147" t="s">
         <v>102</v>
       </c>
       <c r="F147" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -5000,68 +5002,68 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B148">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="D148" s="1">
-        <v>32129</v>
+        <v>32485</v>
       </c>
       <c r="E148" t="s">
         <v>102</v>
       </c>
       <c r="F148" t="s">
-        <v>177</v>
+        <v>404</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C149">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1">
-        <v>31890</v>
+        <v>32129</v>
       </c>
       <c r="E149" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="F149" t="s">
-        <v>392</v>
+        <v>177</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B150">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D150" s="1">
-        <v>32219</v>
+        <v>31890</v>
       </c>
       <c r="E150" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="F150" t="s">
-        <v>178</v>
+        <v>392</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -5069,68 +5071,68 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B151">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C151">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D151" s="1">
-        <v>32373</v>
+        <v>32219</v>
       </c>
       <c r="E151" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C152">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D152" s="1">
-        <v>28052</v>
+        <v>32373</v>
       </c>
       <c r="E152" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F152" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B153">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C153">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D153" s="1">
-        <v>25862</v>
+        <v>28052</v>
       </c>
       <c r="E153" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F153" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -5141,19 +5143,19 @@
         <v>3</v>
       </c>
       <c r="B154">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D154" s="1">
-        <v>29145</v>
+        <v>25862</v>
       </c>
       <c r="E154" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F154" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -5161,22 +5163,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B155">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C155">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D155" s="1">
-        <v>29574</v>
+        <v>29145</v>
       </c>
       <c r="E155" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F155" t="s">
-        <v>368</v>
+        <v>182</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -5187,65 +5189,65 @@
         <v>19</v>
       </c>
       <c r="B156">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C156">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D156" s="1">
-        <v>31637</v>
+        <v>29574</v>
       </c>
       <c r="E156" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="F156" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B157">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C157">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D157" s="1">
-        <v>29159</v>
+        <v>31637</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="F157" t="s">
-        <v>184</v>
+        <v>377</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B158">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C158">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D158" s="1">
-        <v>30456</v>
+        <v>29159</v>
       </c>
       <c r="E158" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -5256,19 +5258,19 @@
         <v>3</v>
       </c>
       <c r="B159">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C159">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D159" s="1">
-        <v>28928</v>
+        <v>30456</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -5279,19 +5281,19 @@
         <v>3</v>
       </c>
       <c r="B160">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C160">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D160" s="1">
-        <v>27432</v>
+        <v>28928</v>
       </c>
       <c r="E160" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F160" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -5299,91 +5301,91 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B161">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C161">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="D161" s="1">
-        <v>28850</v>
+        <v>27432</v>
       </c>
       <c r="E161" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F161" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B162">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C162">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D162" s="1">
-        <v>30883</v>
+        <v>28850</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="F162" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B163">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C163">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D163" s="1">
-        <v>30049</v>
+        <v>30883</v>
       </c>
       <c r="E163" t="s">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B164">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C164">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D164" s="1">
-        <v>28591</v>
+        <v>30049</v>
       </c>
       <c r="E164" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="F164" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -5391,22 +5393,22 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B165">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C165">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D165" s="1">
-        <v>29413</v>
+        <v>28591</v>
       </c>
       <c r="E165" t="s">
         <v>104</v>
       </c>
       <c r="F165" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -5414,22 +5416,22 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B166">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C166">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D166" s="1">
-        <v>28801</v>
+        <v>29413</v>
       </c>
       <c r="E166" t="s">
         <v>104</v>
       </c>
       <c r="F166" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -5437,22 +5439,22 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B167">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C167">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="D167" s="1">
-        <v>29266</v>
+        <v>28801</v>
       </c>
       <c r="E167" t="s">
         <v>104</v>
       </c>
       <c r="F167" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -5460,25 +5462,25 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B168">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C168">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D168" s="1">
-        <v>28920</v>
+        <v>29266</v>
       </c>
       <c r="E168" t="s">
         <v>104</v>
       </c>
       <c r="F168" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5486,19 +5488,19 @@
         <v>3</v>
       </c>
       <c r="B169">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C169">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D169" s="1">
-        <v>29791</v>
+        <v>28920</v>
       </c>
       <c r="E169" t="s">
         <v>104</v>
       </c>
       <c r="F169" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -5509,22 +5511,22 @@
         <v>3</v>
       </c>
       <c r="B170">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C170">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D170" s="1">
-        <v>29245</v>
+        <v>29791</v>
       </c>
       <c r="E170" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F170" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5532,42 +5534,42 @@
         <v>3</v>
       </c>
       <c r="B171">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C171">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D171" s="1">
-        <v>30704</v>
+        <v>29245</v>
       </c>
       <c r="E171" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F171" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B172">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C172">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="D172" s="1">
-        <v>30733</v>
+        <v>30704</v>
       </c>
       <c r="E172" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F172" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -5575,22 +5577,22 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B173">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="D173" s="1">
-        <v>30621</v>
+        <v>30733</v>
       </c>
       <c r="E173" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="F173" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -5598,22 +5600,22 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B174">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C174">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="D174" s="1">
-        <v>30328</v>
+        <v>30621</v>
       </c>
       <c r="E174" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="F174" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -5621,22 +5623,22 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B175">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C175">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D175" s="1">
-        <v>29565</v>
+        <v>30328</v>
       </c>
       <c r="E175" t="s">
         <v>202</v>
       </c>
       <c r="F175" t="s">
-        <v>391</v>
+        <v>203</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -5644,25 +5646,25 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B176">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C176">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D176" s="1">
-        <v>29490</v>
+        <v>29565</v>
       </c>
       <c r="E176" t="s">
         <v>202</v>
       </c>
       <c r="F176" t="s">
-        <v>204</v>
+        <v>391</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5670,45 +5672,45 @@
         <v>6</v>
       </c>
       <c r="B177">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C177">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="D177" s="1">
-        <v>29844</v>
+        <v>29490</v>
       </c>
       <c r="E177" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="F177" t="s">
-        <v>378</v>
+        <v>204</v>
       </c>
       <c r="G177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B178">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C178">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="D178" s="1">
-        <v>26819</v>
+        <v>29844</v>
       </c>
       <c r="E178" t="s">
         <v>104</v>
       </c>
       <c r="F178" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5716,19 +5718,19 @@
         <v>3</v>
       </c>
       <c r="B179">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C179">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="D179" s="1">
-        <v>29333</v>
+        <v>26819</v>
       </c>
       <c r="E179" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="F179" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -5739,19 +5741,19 @@
         <v>3</v>
       </c>
       <c r="B180">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C180">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D180" s="1">
-        <v>28683</v>
+        <v>29333</v>
       </c>
       <c r="E180" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F180" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -5762,19 +5764,19 @@
         <v>3</v>
       </c>
       <c r="B181">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C181">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D181" s="1">
-        <v>30078</v>
+        <v>28683</v>
       </c>
       <c r="E181" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -5785,19 +5787,19 @@
         <v>3</v>
       </c>
       <c r="B182">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C182">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="D182" s="1">
-        <v>29578</v>
+        <v>30078</v>
       </c>
       <c r="E182" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="F182" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -5808,19 +5810,19 @@
         <v>3</v>
       </c>
       <c r="B183">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C183">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D183" s="1">
-        <v>30216</v>
+        <v>29578</v>
       </c>
       <c r="E183" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="F183" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -5831,19 +5833,19 @@
         <v>3</v>
       </c>
       <c r="B184">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C184">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D184" s="1">
-        <v>25925</v>
+        <v>30216</v>
       </c>
       <c r="E184" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F184" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -5854,19 +5856,19 @@
         <v>3</v>
       </c>
       <c r="B185">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C185">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D185" s="1">
-        <v>29993</v>
+        <v>25925</v>
       </c>
       <c r="E185" t="s">
         <v>56</v>
       </c>
       <c r="F185" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -5874,22 +5876,22 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B186">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C186">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D186" s="1">
-        <v>29516</v>
+        <v>29993</v>
       </c>
       <c r="E186" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="F186" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -5897,22 +5899,22 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B187">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C187">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="D187" s="1">
-        <v>28767</v>
+        <v>29516</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="F187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -5923,19 +5925,19 @@
         <v>3</v>
       </c>
       <c r="B188">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C188">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D188" s="1">
-        <v>29333</v>
+        <v>28767</v>
       </c>
       <c r="E188" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="F188" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -5943,22 +5945,22 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B189">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C189">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D189" s="1">
-        <v>29516</v>
+        <v>29333</v>
       </c>
       <c r="E189" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="F189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -5966,22 +5968,22 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B190">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C190">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D190" s="1">
-        <v>27870</v>
+        <v>29516</v>
       </c>
       <c r="E190" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="F190" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -5989,22 +5991,22 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B191">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C191">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="D191" s="1">
-        <v>29123</v>
+        <v>27870</v>
       </c>
       <c r="E191" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="F191" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -6012,25 +6014,25 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B192">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C192">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D192" s="1">
-        <v>29203</v>
+        <v>29123</v>
       </c>
       <c r="E192" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F192" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G192">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6050,7 +6052,7 @@
         <v>59</v>
       </c>
       <c r="F193" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -6058,25 +6060,25 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B194">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C194">
         <v>35</v>
       </c>
       <c r="D194" s="1">
-        <v>27809</v>
+        <v>29203</v>
       </c>
       <c r="E194" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6084,19 +6086,19 @@
         <v>6</v>
       </c>
       <c r="B195">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D195" s="1">
-        <v>28095</v>
+        <v>27809</v>
       </c>
       <c r="E195" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F195" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -6107,19 +6109,19 @@
         <v>6</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C196">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="D196" s="1">
-        <v>29930</v>
+        <v>28095</v>
       </c>
       <c r="E196" t="s">
         <v>104</v>
       </c>
       <c r="F196" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -6133,16 +6135,16 @@
         <v>17</v>
       </c>
       <c r="C197">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D197" s="1">
-        <v>29913</v>
+        <v>29930</v>
       </c>
       <c r="E197" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -6150,22 +6152,22 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B198">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C198">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D198" s="1">
-        <v>28776</v>
+        <v>29913</v>
       </c>
       <c r="E198" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="F198" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -6176,19 +6178,19 @@
         <v>3</v>
       </c>
       <c r="B199">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C199">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="D199" s="1">
-        <v>29780</v>
+        <v>28776</v>
       </c>
       <c r="E199" t="s">
         <v>212</v>
       </c>
       <c r="F199" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -6199,19 +6201,19 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C200">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D200" s="1">
-        <v>29487</v>
+        <v>29780</v>
       </c>
       <c r="E200" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="F200" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -6222,19 +6224,19 @@
         <v>3</v>
       </c>
       <c r="B201">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C201">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D201" s="1">
-        <v>29691</v>
+        <v>29487</v>
       </c>
       <c r="E201" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="F201" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -6242,22 +6244,22 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B202">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C202">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="D202" s="1">
-        <v>29203</v>
+        <v>29691</v>
       </c>
       <c r="E202" t="s">
         <v>9</v>
       </c>
       <c r="F202" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -6268,19 +6270,19 @@
         <v>6</v>
       </c>
       <c r="B203">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C203">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D203" s="1">
-        <v>29389</v>
+        <v>29203</v>
       </c>
       <c r="E203" t="s">
         <v>9</v>
       </c>
       <c r="F203" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -6288,22 +6290,22 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B204">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C204">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D204" s="1">
-        <v>29451</v>
+        <v>29389</v>
       </c>
       <c r="E204" t="s">
         <v>9</v>
       </c>
       <c r="F204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -6314,19 +6316,19 @@
         <v>3</v>
       </c>
       <c r="B205">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C205">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D205" s="1">
-        <v>28972</v>
+        <v>29451</v>
       </c>
       <c r="E205" t="s">
         <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -6334,22 +6336,22 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B206">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C206">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D206" s="1">
-        <v>29642</v>
+        <v>28972</v>
       </c>
       <c r="E206" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F206" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -6360,19 +6362,19 @@
         <v>6</v>
       </c>
       <c r="B207">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C207">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D207" s="1">
-        <v>28383</v>
+        <v>29642</v>
       </c>
       <c r="E207" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="F207" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -6383,19 +6385,19 @@
         <v>6</v>
       </c>
       <c r="B208">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C208">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D208" s="1">
-        <v>29605</v>
+        <v>28383</v>
       </c>
       <c r="E208" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="F208" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -6403,22 +6405,22 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B209">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C209">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D209" s="1">
-        <v>29574</v>
+        <v>29605</v>
       </c>
       <c r="E209" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F209" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -6426,22 +6428,22 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C210">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D210" s="1">
-        <v>27386</v>
+        <v>29574</v>
       </c>
       <c r="E210" t="s">
         <v>56</v>
       </c>
       <c r="F210" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -6452,19 +6454,19 @@
         <v>6</v>
       </c>
       <c r="B211">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C211">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D211" s="1">
-        <v>29266</v>
+        <v>27386</v>
       </c>
       <c r="E211" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="F211" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -6478,16 +6480,16 @@
         <v>15</v>
       </c>
       <c r="C212">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D212" s="1">
-        <v>29326</v>
+        <v>29266</v>
       </c>
       <c r="E212" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="F212" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -6498,19 +6500,19 @@
         <v>6</v>
       </c>
       <c r="B213">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C213">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D213" s="1">
-        <v>28884</v>
+        <v>29326</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="F213" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -6521,19 +6523,19 @@
         <v>6</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C214">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D214" s="1">
-        <v>28685</v>
+        <v>28884</v>
       </c>
       <c r="E214" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -6541,22 +6543,22 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B215">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C215">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="D215" s="1">
-        <v>26136</v>
+        <v>28685</v>
       </c>
       <c r="E215" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="F215" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -6564,22 +6566,22 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B216">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C216">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D216" s="1">
-        <v>29110</v>
+        <v>26136</v>
       </c>
       <c r="E216" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="F216" t="s">
-        <v>390</v>
+        <v>247</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -6587,22 +6589,22 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B217">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C217">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D217" s="1">
-        <v>28832</v>
+        <v>29110</v>
       </c>
       <c r="E217" t="s">
         <v>127</v>
       </c>
       <c r="F217" t="s">
-        <v>248</v>
+        <v>390</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -6613,19 +6615,19 @@
         <v>6</v>
       </c>
       <c r="B218">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C218">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D218" s="1">
-        <v>29115</v>
+        <v>28832</v>
       </c>
       <c r="E218" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="F218" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -6636,19 +6638,19 @@
         <v>6</v>
       </c>
       <c r="B219">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C219">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D219" s="1">
-        <v>29229</v>
+        <v>29115</v>
       </c>
       <c r="E219" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="F219" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -6656,22 +6658,22 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B220">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C220">
+        <v>14</v>
+      </c>
+      <c r="D220" s="1">
+        <v>29229</v>
+      </c>
+      <c r="E220" t="s">
         <v>34</v>
       </c>
-      <c r="D220" s="1">
-        <v>28902</v>
-      </c>
-      <c r="E220" t="s">
-        <v>9</v>
-      </c>
       <c r="F220" t="s">
-        <v>384</v>
+        <v>250</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -6679,22 +6681,22 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B221">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C221">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D221" s="1">
-        <v>29157</v>
+        <v>28902</v>
       </c>
       <c r="E221" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F221" t="s">
-        <v>251</v>
+        <v>384</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -6702,22 +6704,22 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B222">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C222">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D222" s="1">
-        <v>27519</v>
+        <v>29157</v>
       </c>
       <c r="E222" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F222" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -6725,22 +6727,22 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B223">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C223">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D223" s="1">
-        <v>29145</v>
+        <v>27519</v>
       </c>
       <c r="E223" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F223" t="s">
-        <v>252</v>
+        <v>401</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -6751,19 +6753,19 @@
         <v>6</v>
       </c>
       <c r="B224">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C224">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D224" s="1">
-        <v>28937</v>
+        <v>29145</v>
       </c>
       <c r="E224" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F224" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -6774,19 +6776,19 @@
         <v>6</v>
       </c>
       <c r="B225">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C225">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="D225" s="1">
-        <v>28670</v>
+        <v>28937</v>
       </c>
       <c r="E225" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F225" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -6797,19 +6799,19 @@
         <v>6</v>
       </c>
       <c r="B226">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C226">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D226" s="1">
-        <v>29059</v>
+        <v>28670</v>
       </c>
       <c r="E226" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F226" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -6817,22 +6819,22 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B227">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C227">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="D227" s="1">
-        <v>28719</v>
+        <v>29059</v>
       </c>
       <c r="E227" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="F227" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -6840,22 +6842,22 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B228">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C228">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="D228" s="1">
-        <v>29061</v>
+        <v>28719</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F228" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -6863,22 +6865,22 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B229">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C229">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D229" s="1">
-        <v>29046</v>
+        <v>29061</v>
       </c>
       <c r="E229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -6886,22 +6888,22 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B230">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D230" s="1">
-        <v>27452</v>
+        <v>29046</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
       </c>
       <c r="F230" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -6912,19 +6914,19 @@
         <v>6</v>
       </c>
       <c r="B231">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C231">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D231" s="1">
-        <v>28605</v>
+        <v>27452</v>
       </c>
       <c r="E231" t="s">
         <v>9</v>
       </c>
       <c r="F231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -6932,22 +6934,22 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B232">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C232">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="D232" s="1">
-        <v>27850</v>
+        <v>28605</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
       </c>
       <c r="F232" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -6955,22 +6957,22 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B233">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C233">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D233" s="1">
-        <v>29035</v>
+        <v>27850</v>
       </c>
       <c r="E233" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="F233" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -6978,22 +6980,22 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B234">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C234">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D234" s="1">
-        <v>28646</v>
+        <v>29035</v>
       </c>
       <c r="E234" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="F234" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -7007,16 +7009,16 @@
         <v>35</v>
       </c>
       <c r="C235">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="D235" s="1">
-        <v>28774</v>
+        <v>28646</v>
       </c>
       <c r="E235" t="s">
         <v>59</v>
       </c>
       <c r="F235" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -7024,22 +7026,22 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B236">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C236">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D236" s="1">
-        <v>29000</v>
+        <v>28774</v>
       </c>
       <c r="E236" t="s">
-        <v>265</v>
+        <v>59</v>
       </c>
       <c r="F236" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -7053,16 +7055,16 @@
         <v>13</v>
       </c>
       <c r="C237">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D237" s="1">
-        <v>29005</v>
+        <v>29000</v>
       </c>
       <c r="E237" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="F237" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -7073,19 +7075,19 @@
         <v>6</v>
       </c>
       <c r="B238">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C238">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="D238" s="1">
-        <v>28761</v>
+        <v>29005</v>
       </c>
       <c r="E238" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="F238" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -7096,19 +7098,19 @@
         <v>6</v>
       </c>
       <c r="B239">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C239">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D239" s="1">
-        <v>28985</v>
+        <v>28761</v>
       </c>
       <c r="E239" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="F239" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -7116,22 +7118,22 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B240">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C240">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D240" s="1">
-        <v>28857</v>
+        <v>28985</v>
       </c>
       <c r="E240" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F240" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -7139,22 +7141,22 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B241">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C241">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="D241" s="1">
-        <v>28864</v>
+        <v>28857</v>
       </c>
       <c r="E241" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="F241" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -7162,22 +7164,22 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B242">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C242">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D242" s="1">
-        <v>25980</v>
+        <v>28864</v>
       </c>
       <c r="E242" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="F242" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -7185,22 +7187,22 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B243">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D243" s="1">
-        <v>28913</v>
+        <v>25980</v>
       </c>
       <c r="E243" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F243" t="s">
-        <v>389</v>
+        <v>272</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -7208,22 +7210,22 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B244">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C244">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="D244" s="1">
-        <v>28192</v>
+        <v>28913</v>
       </c>
       <c r="E244" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F244" t="s">
-        <v>273</v>
+        <v>389</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -7234,19 +7236,19 @@
         <v>6</v>
       </c>
       <c r="B245">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C245">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="D245" s="1">
-        <v>28709</v>
+        <v>28192</v>
       </c>
       <c r="E245" t="s">
         <v>104</v>
       </c>
       <c r="F245" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -7260,10 +7262,10 @@
         <v>12</v>
       </c>
       <c r="C246">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D246" s="1">
-        <v>28838</v>
+        <v>28709</v>
       </c>
       <c r="E246" t="s">
         <v>104</v>
@@ -7280,19 +7282,19 @@
         <v>6</v>
       </c>
       <c r="B247">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C247">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D247" s="1">
-        <v>28622</v>
+        <v>28838</v>
       </c>
       <c r="E247" t="s">
         <v>104</v>
       </c>
       <c r="F247" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -7300,22 +7302,22 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B248">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C248">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="D248" s="1">
-        <v>28909</v>
+        <v>28622</v>
       </c>
       <c r="E248" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F248" t="s">
-        <v>388</v>
+        <v>275</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -7323,22 +7325,22 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B249">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C249">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D249" s="1">
-        <v>28872</v>
+        <v>28909</v>
       </c>
       <c r="E249" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="F249" t="s">
-        <v>276</v>
+        <v>388</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -7352,16 +7354,16 @@
         <v>12</v>
       </c>
       <c r="C250">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D250" s="1">
-        <v>28852</v>
+        <v>28872</v>
       </c>
       <c r="E250" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="F250" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -7375,16 +7377,16 @@
         <v>12</v>
       </c>
       <c r="C251">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D251" s="1">
-        <v>28853</v>
+        <v>28852</v>
       </c>
       <c r="E251" t="s">
         <v>202</v>
       </c>
       <c r="F251" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -7395,22 +7397,22 @@
         <v>6</v>
       </c>
       <c r="B252">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C252">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="D252" s="1">
-        <v>27452</v>
+        <v>28853</v>
       </c>
       <c r="E252" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="F252" t="s">
-        <v>380</v>
+        <v>278</v>
       </c>
       <c r="G252">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7418,22 +7420,22 @@
         <v>6</v>
       </c>
       <c r="B253">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C253">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="D253" s="1">
-        <v>28678</v>
+        <v>27452</v>
       </c>
       <c r="E253" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F253" t="s">
-        <v>279</v>
+        <v>380</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7441,19 +7443,19 @@
         <v>6</v>
       </c>
       <c r="B254">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C254">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="D254" s="1">
-        <v>28298</v>
+        <v>28678</v>
       </c>
       <c r="E254" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F254" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -7467,19 +7469,19 @@
         <v>9</v>
       </c>
       <c r="C255">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D255" s="1">
-        <v>28271</v>
+        <v>28298</v>
       </c>
       <c r="E255" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F255" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7487,22 +7489,22 @@
         <v>6</v>
       </c>
       <c r="B256">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C256">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D256" s="1">
-        <v>28577</v>
+        <v>28271</v>
       </c>
       <c r="E256" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="F256" t="s">
-        <v>387</v>
+        <v>281</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7510,19 +7512,19 @@
         <v>6</v>
       </c>
       <c r="B257">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C257">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D257" s="1">
-        <v>28033</v>
+        <v>28577</v>
       </c>
       <c r="E257" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F257" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -7530,22 +7532,22 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B258">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C258">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D258" s="1">
-        <v>27466</v>
+        <v>28033</v>
       </c>
       <c r="E258" t="s">
         <v>104</v>
       </c>
       <c r="F258" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -7553,22 +7555,22 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B259">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C259">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D259" s="1">
-        <v>28241</v>
+        <v>27466</v>
       </c>
       <c r="E259" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F259" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -7582,16 +7584,16 @@
         <v>9</v>
       </c>
       <c r="C260">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="D260" s="1">
-        <v>28333</v>
+        <v>28241</v>
       </c>
       <c r="E260" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="F260" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -7602,19 +7604,19 @@
         <v>6</v>
       </c>
       <c r="B261">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C261">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="D261" s="1">
-        <v>28157</v>
+        <v>28333</v>
       </c>
       <c r="E261" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="F261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -7625,19 +7627,19 @@
         <v>6</v>
       </c>
       <c r="B262">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C262">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D262" s="1">
-        <v>28419</v>
+        <v>28157</v>
       </c>
       <c r="E262" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="F262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -7648,19 +7650,19 @@
         <v>6</v>
       </c>
       <c r="B263">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C263">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D263" s="1">
-        <v>28313</v>
+        <v>28419</v>
       </c>
       <c r="E263" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="F263" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -7671,22 +7673,22 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C264">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D264" s="1">
-        <v>28151</v>
+        <v>28313</v>
       </c>
       <c r="E264" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F264" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -7694,22 +7696,22 @@
         <v>6</v>
       </c>
       <c r="B265">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C265">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D265" s="1">
-        <v>27990</v>
+        <v>28151</v>
       </c>
       <c r="E265" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F265" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -7717,19 +7719,19 @@
         <v>6</v>
       </c>
       <c r="B266">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C266">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="D266" s="1">
-        <v>27424</v>
+        <v>27990</v>
       </c>
       <c r="E266" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F266" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -7740,19 +7742,19 @@
         <v>6</v>
       </c>
       <c r="B267">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>130</v>
+      </c>
+      <c r="D267" s="1">
+        <v>27424</v>
+      </c>
+      <c r="E267" t="s">
         <v>9</v>
       </c>
-      <c r="C267">
-        <v>129</v>
-      </c>
-      <c r="D267" s="1">
-        <v>28332</v>
-      </c>
-      <c r="E267" t="s">
-        <v>202</v>
-      </c>
       <c r="F267" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -7763,19 +7765,19 @@
         <v>6</v>
       </c>
       <c r="B268">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C268">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D268" s="1">
-        <v>28481</v>
+        <v>28332</v>
       </c>
       <c r="E268" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="F268" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -7786,19 +7788,19 @@
         <v>6</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C269">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="D269" s="1">
-        <v>28286</v>
+        <v>28481</v>
       </c>
       <c r="E269" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F269" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -7809,19 +7811,19 @@
         <v>6</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C270">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D270" s="1">
-        <v>28429</v>
+        <v>28286</v>
       </c>
       <c r="E270" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="F270" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -7832,19 +7834,19 @@
         <v>6</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C271">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D271" s="1">
-        <v>28237</v>
+        <v>28429</v>
       </c>
       <c r="E271" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="F271" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -7855,19 +7857,19 @@
         <v>6</v>
       </c>
       <c r="B272">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C272">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D272" s="1">
-        <v>26977</v>
+        <v>28237</v>
       </c>
       <c r="E272" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="F272" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -7875,22 +7877,22 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B273">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C273">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="D273" s="1">
-        <v>28255</v>
+        <v>26977</v>
       </c>
       <c r="E273" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F273" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -7898,22 +7900,22 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C274">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="D274" s="1">
-        <v>28362</v>
+        <v>28255</v>
       </c>
       <c r="E274" t="s">
         <v>104</v>
       </c>
       <c r="F274" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -7924,19 +7926,19 @@
         <v>6</v>
       </c>
       <c r="B275">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C275">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D275" s="1">
-        <v>28139</v>
+        <v>28362</v>
       </c>
       <c r="E275" t="s">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="F275" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -7947,19 +7949,19 @@
         <v>6</v>
       </c>
       <c r="B276">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C276">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D276" s="1">
-        <v>27998</v>
+        <v>28139</v>
       </c>
       <c r="E276" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="F276" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -7967,22 +7969,22 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B277">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C277">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D277" s="1">
-        <v>27745</v>
+        <v>27998</v>
       </c>
       <c r="E277" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F277" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -7990,22 +7992,22 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B278">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C278">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D278" s="1">
-        <v>28117</v>
+        <v>27745</v>
       </c>
       <c r="E278" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F278" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -8019,16 +8021,16 @@
         <v>8</v>
       </c>
       <c r="C279">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D279" s="1">
-        <v>28157</v>
+        <v>28117</v>
       </c>
       <c r="E279" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="F279" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -8036,22 +8038,22 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B280">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C280">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D280" s="1">
-        <v>20292</v>
+        <v>28157</v>
       </c>
       <c r="E280" t="s">
-        <v>306</v>
+        <v>92</v>
       </c>
       <c r="F280" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -8059,22 +8061,22 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C281">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="D281" s="1">
-        <v>27954</v>
+        <v>20292</v>
       </c>
       <c r="E281" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="F281" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -8085,19 +8087,19 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C282">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="D282" s="1">
-        <v>28145</v>
+        <v>27954</v>
       </c>
       <c r="E282" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="F282" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -8108,19 +8110,19 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C283">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="D283" s="1">
-        <v>27452</v>
+        <v>28145</v>
       </c>
       <c r="E283" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="F283" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -8131,19 +8133,19 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C284">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="D284" s="1">
-        <v>27599</v>
+        <v>27452</v>
       </c>
       <c r="E284" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F284" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -8154,19 +8156,19 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C285">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D285" s="1">
-        <v>28096</v>
+        <v>27599</v>
       </c>
       <c r="E285" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F285" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -8177,19 +8179,19 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C286">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D286" s="1">
-        <v>28041</v>
+        <v>28096</v>
       </c>
       <c r="E286" t="s">
         <v>56</v>
       </c>
       <c r="F286" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -8200,19 +8202,19 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C287">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D287" s="1">
-        <v>28137</v>
+        <v>28041</v>
       </c>
       <c r="E287" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F287" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -8223,19 +8225,19 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C288">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="D288" s="1">
-        <v>27751</v>
+        <v>28137</v>
       </c>
       <c r="E288" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F288" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -8246,19 +8248,19 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C289">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="D289" s="1">
-        <v>28117</v>
+        <v>27751</v>
       </c>
       <c r="E289" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F289" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -8269,19 +8271,19 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C290">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D290" s="1">
-        <v>27025</v>
+        <v>28117</v>
       </c>
       <c r="E290" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="F290" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -8292,22 +8294,22 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C291">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="D291" s="1">
-        <v>28081</v>
+        <v>27025</v>
       </c>
       <c r="E291" t="s">
-        <v>316</v>
+        <v>9</v>
       </c>
       <c r="F291" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="G291">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -8315,22 +8317,22 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C292">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="D292" s="1">
-        <v>27604</v>
+        <v>28081</v>
       </c>
       <c r="E292" t="s">
-        <v>56</v>
+        <v>316</v>
       </c>
       <c r="F292" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="G292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -8338,19 +8340,19 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C293">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="D293" s="1">
-        <v>27103</v>
+        <v>27604</v>
       </c>
       <c r="E293" t="s">
         <v>56</v>
       </c>
       <c r="F293" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -8358,22 +8360,22 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B294">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C294">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="D294" s="1">
-        <v>27444</v>
+        <v>27103</v>
       </c>
       <c r="E294" t="s">
         <v>56</v>
       </c>
       <c r="F294" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -8381,22 +8383,22 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B295">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C295">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D295" s="1">
-        <v>27229</v>
+        <v>27444</v>
       </c>
       <c r="E295" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F295" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -8407,19 +8409,19 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C296">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D296" s="1">
-        <v>27984</v>
+        <v>27229</v>
       </c>
       <c r="E296" t="s">
         <v>9</v>
       </c>
       <c r="F296" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -8430,19 +8432,19 @@
         <v>6</v>
       </c>
       <c r="B297">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C297">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D297" s="1">
-        <v>27842</v>
+        <v>27984</v>
       </c>
       <c r="E297" t="s">
         <v>9</v>
       </c>
       <c r="F297" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -8456,16 +8458,16 @@
         <v>6</v>
       </c>
       <c r="C298">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D298" s="1">
-        <v>27799</v>
+        <v>27842</v>
       </c>
       <c r="E298" t="s">
         <v>9</v>
       </c>
       <c r="F298" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -8473,22 +8475,22 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B299">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C299">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D299" s="1">
-        <v>25952</v>
+        <v>27799</v>
       </c>
       <c r="E299" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F299" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -8496,22 +8498,22 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B300">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C300">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D300" s="1">
-        <v>27976</v>
+        <v>25952</v>
       </c>
       <c r="E300" t="s">
         <v>104</v>
       </c>
       <c r="F300" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -8519,22 +8521,22 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B301">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C301">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D301" s="1">
-        <v>27519</v>
+        <v>27976</v>
       </c>
       <c r="E301" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F301" t="s">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -8545,19 +8547,19 @@
         <v>3</v>
       </c>
       <c r="B302">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C302">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D302" s="1">
-        <v>26249</v>
+        <v>27519</v>
       </c>
       <c r="E302" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="F302" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="G302">
         <v>1</v>
@@ -8565,22 +8567,22 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B303">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C303">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D303" s="1">
-        <v>27501</v>
+        <v>26249</v>
       </c>
       <c r="E303" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F303" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G303">
         <v>1</v>
@@ -8591,19 +8593,19 @@
         <v>6</v>
       </c>
       <c r="B304">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C304">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D304" s="1">
-        <v>27809</v>
+        <v>27501</v>
       </c>
       <c r="E304" t="s">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="F304" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -8614,19 +8616,19 @@
         <v>6</v>
       </c>
       <c r="B305">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C305">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="D305" s="1">
-        <v>27718</v>
+        <v>27809</v>
       </c>
       <c r="E305" t="s">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="F305" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -8637,19 +8639,19 @@
         <v>6</v>
       </c>
       <c r="B306">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C306">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="D306" s="1">
-        <v>27339</v>
+        <v>27718</v>
       </c>
       <c r="E306" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F306" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -8657,22 +8659,22 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B307">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C307">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D307" s="1">
-        <v>27221</v>
+        <v>27339</v>
       </c>
       <c r="E307" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="F307" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G307">
         <v>1</v>
@@ -8683,19 +8685,19 @@
         <v>3</v>
       </c>
       <c r="B308">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C308">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D308" s="1">
-        <v>27562</v>
+        <v>27221</v>
       </c>
       <c r="E308" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F308" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G308">
         <v>1</v>
@@ -8718,7 +8720,7 @@
         <v>9</v>
       </c>
       <c r="F309" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G309">
         <v>1</v>
@@ -8726,22 +8728,22 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B310">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C310">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D310" s="1">
-        <v>27347</v>
+        <v>27562</v>
       </c>
       <c r="E310" t="s">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="F310" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G310">
         <v>1</v>
@@ -8752,19 +8754,19 @@
         <v>6</v>
       </c>
       <c r="B311">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C311">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D311" s="1">
-        <v>27452</v>
+        <v>27347</v>
       </c>
       <c r="E311" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="F311" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G311">
         <v>1</v>
@@ -8778,16 +8780,16 @@
         <v>5</v>
       </c>
       <c r="C312">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="D312" s="1">
-        <v>27729</v>
+        <v>27452</v>
       </c>
       <c r="E312" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="F312" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G312">
         <v>1</v>
@@ -8801,16 +8803,16 @@
         <v>5</v>
       </c>
       <c r="C313">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D313" s="1">
-        <v>27633</v>
+        <v>27729</v>
       </c>
       <c r="E313" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="F313" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G313">
         <v>1</v>
@@ -8821,19 +8823,19 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C314">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D314" s="1">
-        <v>27345</v>
+        <v>27633</v>
       </c>
       <c r="E314" t="s">
         <v>12</v>
       </c>
       <c r="F314" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G314">
         <v>1</v>
@@ -8841,22 +8843,22 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B315">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C315">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="D315" s="1">
-        <v>27606</v>
+        <v>27345</v>
       </c>
       <c r="E315" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="F315" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="G315">
         <v>1</v>
@@ -8870,16 +8872,16 @@
         <v>31</v>
       </c>
       <c r="C316">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="D316" s="1">
-        <v>27466</v>
+        <v>27606</v>
       </c>
       <c r="E316" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F316" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="G316">
         <v>1</v>
@@ -8887,22 +8889,22 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C317">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="D317" s="1">
-        <v>27386</v>
+        <v>27466</v>
       </c>
       <c r="E317" t="s">
         <v>104</v>
       </c>
       <c r="F317" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -8916,16 +8918,16 @@
         <v>4</v>
       </c>
       <c r="C318">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D318" s="1">
-        <v>27345</v>
+        <v>27386</v>
       </c>
       <c r="E318" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F318" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G318">
         <v>1</v>
@@ -8933,22 +8935,22 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B319">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C319">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D319" s="1">
-        <v>27145</v>
+        <v>27345</v>
       </c>
       <c r="E319" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F319" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -8956,22 +8958,22 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B320">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C320">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="D320" s="1">
-        <v>27345</v>
+        <v>27145</v>
       </c>
       <c r="E320" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="F320" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -8982,19 +8984,19 @@
         <v>6</v>
       </c>
       <c r="B321">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C321">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D321" s="1">
-        <v>27075</v>
+        <v>27345</v>
       </c>
       <c r="E321" t="s">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="F321" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G321">
         <v>1</v>
@@ -9002,22 +9004,22 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B322">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C322">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="D322" s="1">
-        <v>27134</v>
+        <v>27075</v>
       </c>
       <c r="E322" t="s">
-        <v>9</v>
+        <v>344</v>
       </c>
       <c r="F322" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G322">
         <v>1</v>
@@ -9028,19 +9030,19 @@
         <v>3</v>
       </c>
       <c r="B323">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C323">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="D323" s="1">
-        <v>27201</v>
+        <v>27134</v>
       </c>
       <c r="E323" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="F323" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G323">
         <v>1</v>
@@ -9048,48 +9050,48 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B324">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C324">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D324" s="1">
-        <v>26918</v>
+        <v>27201</v>
       </c>
       <c r="E324" t="s">
-        <v>348</v>
+        <v>160</v>
       </c>
       <c r="F324" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G324">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B325">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C325">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D325" s="1">
-        <v>27116</v>
+        <v>26918</v>
       </c>
       <c r="E325" t="s">
-        <v>127</v>
+        <v>348</v>
       </c>
       <c r="F325" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G325">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -9097,19 +9099,19 @@
         <v>6</v>
       </c>
       <c r="B326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C326">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D326" s="1">
-        <v>26794</v>
+        <v>27116</v>
       </c>
       <c r="E326" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="F326" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G326">
         <v>1</v>
@@ -9120,19 +9122,19 @@
         <v>6</v>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C327">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D327" s="1">
-        <v>27075</v>
+        <v>26794</v>
       </c>
       <c r="E327" t="s">
         <v>160</v>
       </c>
       <c r="F327" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G327">
         <v>1</v>
@@ -9140,22 +9142,22 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B328">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C328">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D328" s="1">
-        <v>25029</v>
+        <v>27075</v>
       </c>
       <c r="E328" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="F328" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G328">
         <v>1</v>
@@ -9163,22 +9165,22 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B329">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C329">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="D329" s="1">
-        <v>26904</v>
+        <v>25029</v>
       </c>
       <c r="E329" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F329" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G329">
         <v>1</v>
@@ -9192,16 +9194,16 @@
         <v>2</v>
       </c>
       <c r="C330">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D330" s="1">
-        <v>26877</v>
+        <v>26904</v>
       </c>
       <c r="E330" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F330" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G330">
         <v>1</v>
@@ -9215,16 +9217,16 @@
         <v>2</v>
       </c>
       <c r="C331">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D331" s="1">
-        <v>26757</v>
+        <v>26877</v>
       </c>
       <c r="E331" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="F331" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G331">
         <v>1</v>
@@ -9235,19 +9237,19 @@
         <v>6</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C332">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D332" s="1">
-        <v>26471</v>
+        <v>26757</v>
       </c>
       <c r="E332" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F332" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -9261,16 +9263,16 @@
         <v>1</v>
       </c>
       <c r="C333">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="D333" s="1">
-        <v>24658</v>
+        <v>26471</v>
       </c>
       <c r="E333" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F333" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G333">
         <v>1</v>
@@ -9278,68 +9280,68 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B334">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C334">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D334" s="1">
-        <v>23860</v>
+        <v>24658</v>
       </c>
       <c r="E334" t="s">
-        <v>359</v>
+        <v>47</v>
       </c>
       <c r="F334" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="G334">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C335">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D335" s="1">
-        <v>24658</v>
+        <v>23860</v>
       </c>
       <c r="E335" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="F335" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B336">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C336">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D336" s="1">
-        <v>25916</v>
+        <v>24658</v>
       </c>
       <c r="E336" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F336" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G336">
         <v>1</v>
@@ -9353,16 +9355,16 @@
         <v>26</v>
       </c>
       <c r="C337">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D337" s="1">
-        <v>25925</v>
+        <v>25916</v>
       </c>
       <c r="E337" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F337" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G337">
         <v>1</v>
@@ -9373,19 +9375,19 @@
         <v>3</v>
       </c>
       <c r="B338">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C338">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="D338" s="1">
-        <v>25804</v>
+        <v>25925</v>
       </c>
       <c r="E338" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="F338" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G338">
         <v>1</v>
@@ -9408,7 +9410,7 @@
         <v>140</v>
       </c>
       <c r="F339" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G339">
         <v>1</v>
@@ -9416,24 +9418,47 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>3</v>
+      </c>
+      <c r="B340">
+        <v>25</v>
+      </c>
+      <c r="C340">
+        <v>131</v>
+      </c>
+      <c r="D340" s="1">
+        <v>25804</v>
+      </c>
+      <c r="E340" t="s">
+        <v>140</v>
+      </c>
+      <c r="F340" t="s">
+        <v>364</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
         <v>19</v>
       </c>
-      <c r="B340">
+      <c r="B341">
         <v>15</v>
       </c>
-      <c r="C340">
+      <c r="C341">
         <v>39</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D341" s="1">
         <v>24743</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E341" t="s">
         <v>92</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F341" t="s">
         <v>365</v>
       </c>
-      <c r="G340">
+      <c r="G341">
         <v>2</v>
       </c>
     </row>
